--- a/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.51325204797049</v>
+        <v>15.51325204797054</v>
       </c>
       <c r="C2">
-        <v>12.2975565196605</v>
+        <v>12.29755651966036</v>
       </c>
       <c r="D2">
-        <v>3.343372845168967</v>
+        <v>3.343372845169436</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.95791390304265</v>
+        <v>27.95791390304258</v>
       </c>
       <c r="G2">
         <v>21.4624562315502</v>
       </c>
       <c r="H2">
-        <v>18.33136012672343</v>
+        <v>18.33136012672346</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>14.46937153707749</v>
+        <v>14.46937153707748</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>29.92718632116559</v>
+        <v>29.92718632116558</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>14.52512370984003</v>
       </c>
       <c r="C3">
-        <v>11.50961631063191</v>
+        <v>11.50961631063182</v>
       </c>
       <c r="D3">
-        <v>3.410507419033878</v>
+        <v>3.41050741903388</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.64576509237267</v>
+        <v>26.64576509237268</v>
       </c>
       <c r="G3">
-        <v>20.6375030679048</v>
+        <v>20.63750306790483</v>
       </c>
       <c r="H3">
-        <v>17.89274141415278</v>
+        <v>17.89274141415279</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>13.60346798695934</v>
+        <v>13.60346798695929</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.60265492174003</v>
+        <v>27.60265492174005</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.88464938510445</v>
+        <v>13.88464938510444</v>
       </c>
       <c r="C4">
-        <v>11.00034861460984</v>
+        <v>11.00034861460988</v>
       </c>
       <c r="D4">
         <v>3.450986359092476</v>
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.83977006920314</v>
+        <v>25.83977006920317</v>
       </c>
       <c r="G4">
-        <v>20.13939463558791</v>
+        <v>20.13939463558795</v>
       </c>
       <c r="H4">
-        <v>17.63861619060896</v>
+        <v>17.63861619060904</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.04406265823573</v>
+        <v>13.04406265823572</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.61514168695055</v>
+        <v>13.61514168695052</v>
       </c>
       <c r="C5">
-        <v>10.78638532600221</v>
+        <v>10.7863853260022</v>
       </c>
       <c r="D5">
-        <v>3.467340422690985</v>
+        <v>3.467340422691052</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.51152263357668</v>
+        <v>25.5115226335767</v>
       </c>
       <c r="G5">
         <v>19.93864064216927</v>
       </c>
       <c r="H5">
-        <v>17.53877543112136</v>
+        <v>17.53877543112134</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.80914386348241</v>
+        <v>12.80914386348239</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.51462762718773</v>
+        <v>25.51462762718766</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.5698757896812</v>
+        <v>13.56987578968122</v>
       </c>
       <c r="C6">
-        <v>10.7504677474138</v>
+        <v>10.75046774741381</v>
       </c>
       <c r="D6">
-        <v>3.470048670533084</v>
+        <v>3.47004867053295</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.45703929579282</v>
+        <v>25.45703929579288</v>
       </c>
       <c r="G6">
-        <v>19.90544404385006</v>
+        <v>19.90544404385005</v>
       </c>
       <c r="H6">
         <v>17.52241851238572</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.41193302398785</v>
+        <v>25.41193302398791</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>13.88104918398325</v>
       </c>
       <c r="C7">
-        <v>10.99748910621217</v>
+        <v>10.99748910621234</v>
       </c>
       <c r="D7">
-        <v>3.451207432937898</v>
+        <v>3.451207432937829</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.83534196260895</v>
+        <v>25.83534196260901</v>
       </c>
       <c r="G7">
         <v>20.13667800189808</v>
       </c>
       <c r="H7">
-        <v>17.63725478520232</v>
+        <v>17.63725478520235</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.04092259317262</v>
+        <v>13.04092259317269</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.12004623245273</v>
+        <v>26.12004623245281</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.17953750346846</v>
+        <v>15.17953750346851</v>
       </c>
       <c r="C8">
-        <v>12.0311409170825</v>
+        <v>12.03114091708258</v>
       </c>
       <c r="D8">
-        <v>3.366703976490302</v>
+        <v>3.366703976490437</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.50570137780983</v>
+        <v>27.50570137780968</v>
       </c>
       <c r="G8">
-        <v>21.17632370845431</v>
+        <v>21.17632370845419</v>
       </c>
       <c r="H8">
-        <v>18.17690937615687</v>
+        <v>18.17690937615672</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.17657111824945</v>
+        <v>14.17657111824952</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.13483666331293</v>
+        <v>29.13483666331292</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.45928947589607</v>
+        <v>17.45928947589608</v>
       </c>
       <c r="C9">
-        <v>13.85779174104877</v>
+        <v>13.85779174104886</v>
       </c>
       <c r="D9">
-        <v>3.192681142724967</v>
+        <v>3.192681142724968</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.77043190175163</v>
+        <v>30.77043190175153</v>
       </c>
       <c r="G9">
-        <v>23.2789067611645</v>
+        <v>23.27890676116444</v>
       </c>
       <c r="H9">
-        <v>19.36074345463955</v>
+        <v>19.36074345463952</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.72600563692178</v>
+        <v>34.72600563692168</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.97374524965386</v>
+        <v>18.97374524965389</v>
       </c>
       <c r="C10">
         <v>15.08064741825934</v>
       </c>
       <c r="D10">
-        <v>3.05555952898638</v>
+        <v>3.055559528986449</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.15879767578412</v>
+        <v>33.15879767578414</v>
       </c>
       <c r="G10">
         <v>24.86282561997164</v>
       </c>
       <c r="H10">
-        <v>20.31569188572504</v>
+        <v>20.31569188572503</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.52417503598764</v>
+        <v>17.52417503598765</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>38.73250717129203</v>
+        <v>38.73250717129194</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.62826760283121</v>
+        <v>19.62826760283131</v>
       </c>
       <c r="C11">
-        <v>15.61180629547775</v>
+        <v>15.61180629547782</v>
       </c>
       <c r="D11">
-        <v>2.989893114244938</v>
+        <v>2.989893114244935</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.24481331591135</v>
+        <v>34.24481331591149</v>
       </c>
       <c r="G11">
-        <v>25.59350391047986</v>
+        <v>25.59350391047992</v>
       </c>
       <c r="H11">
-        <v>20.77129801261974</v>
+        <v>20.77129801261972</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18.10530528996487</v>
+        <v>18.10530528996499</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.562895695375</v>
+        <v>40.56289569537521</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.87118724293724</v>
+        <v>19.87118724293735</v>
       </c>
       <c r="C12">
-        <v>15.8093889790233</v>
+        <v>15.80938897902335</v>
       </c>
       <c r="D12">
-        <v>2.964409026501655</v>
+        <v>2.964409026501726</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.65633776703977</v>
+        <v>34.6563377670398</v>
       </c>
       <c r="G12">
         <v>25.87192702688508</v>
       </c>
       <c r="H12">
-        <v>20.9471859177825</v>
+        <v>20.94718591778246</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>18.32123177735495</v>
+        <v>18.32123177735504</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.2606441690385</v>
+        <v>41.2606441690384</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.8190895804982</v>
+        <v>19.81908958049809</v>
       </c>
       <c r="C13">
-        <v>15.76699328943505</v>
+        <v>15.7669932894351</v>
       </c>
       <c r="D13">
-        <v>2.969927729487228</v>
+        <v>2.969927729487294</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.56768887052946</v>
+        <v>34.56768887052953</v>
       </c>
       <c r="G13">
-        <v>25.81188073096716</v>
+        <v>25.81188073096722</v>
       </c>
       <c r="H13">
-        <v>20.90914977365867</v>
+        <v>20.90914977365872</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.27491212116357</v>
+        <v>18.27491212116352</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.11009758163907</v>
+        <v>41.11009758163922</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.64835161899971</v>
+        <v>19.64835161899975</v>
       </c>
       <c r="C14">
-        <v>15.62813248996152</v>
+        <v>15.62813248996162</v>
       </c>
       <c r="D14">
-        <v>2.987809885901749</v>
+        <v>2.98780988590175</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.27866153511352</v>
+        <v>34.27866153511341</v>
       </c>
       <c r="G14">
-        <v>25.61637317778668</v>
+        <v>25.61637317778661</v>
       </c>
       <c r="H14">
-        <v>20.78569892012343</v>
+        <v>20.78569892012337</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18.12315258270998</v>
+        <v>18.12315258271004</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.62018306614964</v>
+        <v>40.62018306614967</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.54312725058115</v>
+        <v>19.54312725058117</v>
       </c>
       <c r="C15">
-        <v>15.54261481930612</v>
+        <v>15.54261481930633</v>
       </c>
       <c r="D15">
         <v>2.998677760852122</v>
@@ -918,25 +918,25 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.10167306377242</v>
+        <v>34.10167306377239</v>
       </c>
       <c r="G15">
-        <v>25.49685512077755</v>
+        <v>25.49685512077751</v>
       </c>
       <c r="H15">
-        <v>20.71053027165459</v>
+        <v>20.71053027165456</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18.02965691691849</v>
+        <v>18.02965691691854</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.32082145139753</v>
+        <v>40.32082145139754</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.93027989590262</v>
+        <v>18.93027989590264</v>
       </c>
       <c r="C16">
-        <v>15.045434330957</v>
+        <v>15.04543433095698</v>
       </c>
       <c r="D16">
-        <v>3.059773358290581</v>
+        <v>3.059773358290446</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.08783948311304</v>
+        <v>33.08783948311299</v>
       </c>
       <c r="G16">
-        <v>24.81529836645595</v>
+        <v>24.81529836645592</v>
       </c>
       <c r="H16">
-        <v>20.28636788198674</v>
+        <v>20.28636788198672</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>17.4856181691841</v>
+        <v>17.48561816918413</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.61331822553042</v>
+        <v>38.61331822553043</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,10 +985,10 @@
         <v>18.54552011287597</v>
       </c>
       <c r="C17">
-        <v>14.73403674193357</v>
+        <v>14.73403674193352</v>
       </c>
       <c r="D17">
-        <v>3.096320467327031</v>
+        <v>3.096320467327098</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -997,22 +997,22 @@
         <v>32.46595104721647</v>
       </c>
       <c r="G17">
-        <v>24.39993558281628</v>
+        <v>24.39993558281631</v>
       </c>
       <c r="H17">
-        <v>20.03177885129843</v>
+        <v>20.03177885129844</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>17.14450086436742</v>
+        <v>17.14450086436738</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.56998019527123</v>
+        <v>37.56998019527118</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.32097737548321</v>
+        <v>18.32097737548325</v>
       </c>
       <c r="C18">
         <v>14.55256083619779</v>
       </c>
       <c r="D18">
-        <v>3.117042435801372</v>
+        <v>3.117042435801371</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.10818316140264</v>
+        <v>32.10818316140273</v>
       </c>
       <c r="G18">
-        <v>24.1619614512352</v>
+        <v>24.16196145123526</v>
       </c>
       <c r="H18">
-        <v>19.88731756195384</v>
+        <v>19.88731756195389</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.94558911925755</v>
+        <v>16.94558911925762</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>36.97035379063878</v>
+        <v>36.97035379063881</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.2443940199085</v>
+        <v>18.24439401990859</v>
       </c>
       <c r="C19">
-        <v>14.49070767874027</v>
+        <v>14.49070767874024</v>
       </c>
       <c r="D19">
-        <v>3.124010958046964</v>
+        <v>3.124010958047029</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>24.08154138809358</v>
       </c>
       <c r="H19">
-        <v>19.83873612042582</v>
+        <v>19.8387361204258</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16.87777520344956</v>
+        <v>16.87777520344962</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.58681351757064</v>
+        <v>18.58681351757078</v>
       </c>
       <c r="C20">
-        <v>14.76743022729002</v>
+        <v>14.7674302272901</v>
       </c>
       <c r="D20">
-        <v>3.092461825008307</v>
+        <v>3.092461825008239</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.53215793503327</v>
+        <v>32.53215793503323</v>
       </c>
       <c r="G20">
-        <v>24.44405371386878</v>
+        <v>24.44405371386871</v>
       </c>
       <c r="H20">
-        <v>20.05867429036805</v>
+        <v>20.05867429036797</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>17.18109378835551</v>
+        <v>17.18109378835561</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.68097439148328</v>
+        <v>37.68097439148333</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,10 +1137,10 @@
         <v>19.69863538587928</v>
       </c>
       <c r="C21">
-        <v>15.66901533755557</v>
+        <v>15.66901533755551</v>
       </c>
       <c r="D21">
-        <v>2.982575595851346</v>
+        <v>2.982575595851347</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <v>34.36354473890481</v>
       </c>
       <c r="G21">
-        <v>25.67374861344249</v>
+        <v>25.67374861344248</v>
       </c>
       <c r="H21">
-        <v>20.82186523653869</v>
+        <v>20.82186523653868</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>40.76392373294964</v>
+        <v>40.76392373294971</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.39650602230921</v>
+        <v>20.39650602230918</v>
       </c>
       <c r="C22">
-        <v>16.23755013876417</v>
+        <v>16.23755013876426</v>
       </c>
       <c r="D22">
-        <v>2.907055906146867</v>
+        <v>2.907055906146868</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.56237050157117</v>
+        <v>35.56237050157115</v>
       </c>
       <c r="G22">
-        <v>26.48775612192351</v>
+        <v>26.48775612192349</v>
       </c>
       <c r="H22">
-        <v>21.34046767040225</v>
+        <v>21.34046767040224</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>18.78862377764004</v>
+        <v>18.78862377764011</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.02667313560686</v>
+        <v>20.02667313560679</v>
       </c>
       <c r="C23">
-        <v>15.93598935660705</v>
+        <v>15.93598935660692</v>
       </c>
       <c r="D23">
-        <v>2.947761181077882</v>
+        <v>2.947761181077885</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.92219287054719</v>
+        <v>34.92219287054711</v>
       </c>
       <c r="G23">
-        <v>26.05222946597639</v>
+        <v>26.05222946597633</v>
       </c>
       <c r="H23">
-        <v>21.06173407549945</v>
+        <v>21.0617340754994</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>18.45950893240517</v>
+        <v>18.45950893240512</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41.7129972520585</v>
+        <v>41.71299725205867</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.56815517165751</v>
+        <v>18.56815517165754</v>
       </c>
       <c r="C24">
-        <v>14.75234066595742</v>
+        <v>14.75234066595744</v>
       </c>
       <c r="D24">
-        <v>3.094207208484117</v>
+        <v>3.094207208484118</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.50222655891391</v>
+        <v>32.50222655891385</v>
       </c>
       <c r="G24">
-        <v>24.42410536039651</v>
+        <v>24.42410536039647</v>
       </c>
       <c r="H24">
         <v>20.04650894968286</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>17.16455884593157</v>
+        <v>17.1645588459316</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.63079353136437</v>
+        <v>37.63079353136433</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.87089004042016</v>
+        <v>16.8708900404201</v>
       </c>
       <c r="C25">
-        <v>13.38480026839572</v>
+        <v>13.38480026839578</v>
       </c>
       <c r="D25">
-        <v>3.241029804397671</v>
+        <v>3.241029804397873</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.8891676183166</v>
+        <v>29.88916761831661</v>
       </c>
       <c r="G25">
-        <v>22.70347694441909</v>
+        <v>22.70347694441913</v>
       </c>
       <c r="H25">
-        <v>19.02625617437293</v>
+        <v>19.026256174373</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15.66403905494584</v>
+        <v>15.6640390549458</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.23937645263996</v>
+        <v>33.23937645264002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.51325204797054</v>
+        <v>15.51325204797049</v>
       </c>
       <c r="C2">
-        <v>12.29755651966036</v>
+        <v>12.2975565196605</v>
       </c>
       <c r="D2">
-        <v>3.343372845169436</v>
+        <v>3.343372845168967</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.95791390304258</v>
+        <v>27.95791390304265</v>
       </c>
       <c r="G2">
         <v>21.4624562315502</v>
       </c>
       <c r="H2">
-        <v>18.33136012672346</v>
+        <v>18.33136012672343</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>14.46937153707748</v>
+        <v>14.46937153707749</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>29.92718632116558</v>
+        <v>29.92718632116559</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>14.52512370984003</v>
       </c>
       <c r="C3">
-        <v>11.50961631063182</v>
+        <v>11.50961631063191</v>
       </c>
       <c r="D3">
-        <v>3.41050741903388</v>
+        <v>3.410507419033878</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.64576509237268</v>
+        <v>26.64576509237267</v>
       </c>
       <c r="G3">
-        <v>20.63750306790483</v>
+        <v>20.6375030679048</v>
       </c>
       <c r="H3">
-        <v>17.89274141415279</v>
+        <v>17.89274141415278</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>13.60346798695929</v>
+        <v>13.60346798695934</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.60265492174005</v>
+        <v>27.60265492174003</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.88464938510444</v>
+        <v>13.88464938510445</v>
       </c>
       <c r="C4">
-        <v>11.00034861460988</v>
+        <v>11.00034861460984</v>
       </c>
       <c r="D4">
         <v>3.450986359092476</v>
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.83977006920317</v>
+        <v>25.83977006920314</v>
       </c>
       <c r="G4">
-        <v>20.13939463558795</v>
+        <v>20.13939463558791</v>
       </c>
       <c r="H4">
-        <v>17.63861619060904</v>
+        <v>17.63861619060896</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.04406265823572</v>
+        <v>13.04406265823573</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.61514168695052</v>
+        <v>13.61514168695055</v>
       </c>
       <c r="C5">
-        <v>10.7863853260022</v>
+        <v>10.78638532600221</v>
       </c>
       <c r="D5">
-        <v>3.467340422691052</v>
+        <v>3.467340422690985</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.5115226335767</v>
+        <v>25.51152263357668</v>
       </c>
       <c r="G5">
         <v>19.93864064216927</v>
       </c>
       <c r="H5">
-        <v>17.53877543112134</v>
+        <v>17.53877543112136</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.80914386348239</v>
+        <v>12.80914386348241</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.51462762718766</v>
+        <v>25.51462762718773</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.56987578968122</v>
+        <v>13.5698757896812</v>
       </c>
       <c r="C6">
-        <v>10.75046774741381</v>
+        <v>10.7504677474138</v>
       </c>
       <c r="D6">
-        <v>3.47004867053295</v>
+        <v>3.470048670533084</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.45703929579288</v>
+        <v>25.45703929579282</v>
       </c>
       <c r="G6">
-        <v>19.90544404385005</v>
+        <v>19.90544404385006</v>
       </c>
       <c r="H6">
         <v>17.52241851238572</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.41193302398791</v>
+        <v>25.41193302398785</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>13.88104918398325</v>
       </c>
       <c r="C7">
-        <v>10.99748910621234</v>
+        <v>10.99748910621217</v>
       </c>
       <c r="D7">
-        <v>3.451207432937829</v>
+        <v>3.451207432937898</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.83534196260901</v>
+        <v>25.83534196260895</v>
       </c>
       <c r="G7">
         <v>20.13667800189808</v>
       </c>
       <c r="H7">
-        <v>17.63725478520235</v>
+        <v>17.63725478520232</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.04092259317269</v>
+        <v>13.04092259317262</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.12004623245281</v>
+        <v>26.12004623245273</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.17953750346851</v>
+        <v>15.17953750346846</v>
       </c>
       <c r="C8">
-        <v>12.03114091708258</v>
+        <v>12.0311409170825</v>
       </c>
       <c r="D8">
-        <v>3.366703976490437</v>
+        <v>3.366703976490302</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.50570137780968</v>
+        <v>27.50570137780983</v>
       </c>
       <c r="G8">
-        <v>21.17632370845419</v>
+        <v>21.17632370845431</v>
       </c>
       <c r="H8">
-        <v>18.17690937615672</v>
+        <v>18.17690937615687</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.17657111824952</v>
+        <v>14.17657111824945</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.13483666331292</v>
+        <v>29.13483666331293</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.45928947589608</v>
+        <v>17.45928947589607</v>
       </c>
       <c r="C9">
-        <v>13.85779174104886</v>
+        <v>13.85779174104877</v>
       </c>
       <c r="D9">
-        <v>3.192681142724968</v>
+        <v>3.192681142724967</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.77043190175153</v>
+        <v>30.77043190175163</v>
       </c>
       <c r="G9">
-        <v>23.27890676116444</v>
+        <v>23.2789067611645</v>
       </c>
       <c r="H9">
-        <v>19.36074345463952</v>
+        <v>19.36074345463955</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.72600563692168</v>
+        <v>34.72600563692178</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.97374524965389</v>
+        <v>18.97374524965386</v>
       </c>
       <c r="C10">
         <v>15.08064741825934</v>
       </c>
       <c r="D10">
-        <v>3.055559528986449</v>
+        <v>3.05555952898638</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.15879767578414</v>
+        <v>33.15879767578412</v>
       </c>
       <c r="G10">
         <v>24.86282561997164</v>
       </c>
       <c r="H10">
-        <v>20.31569188572503</v>
+        <v>20.31569188572504</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.52417503598765</v>
+        <v>17.52417503598764</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>38.73250717129194</v>
+        <v>38.73250717129203</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.62826760283131</v>
+        <v>19.62826760283121</v>
       </c>
       <c r="C11">
-        <v>15.61180629547782</v>
+        <v>15.61180629547775</v>
       </c>
       <c r="D11">
-        <v>2.989893114244935</v>
+        <v>2.989893114244938</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.24481331591149</v>
+        <v>34.24481331591135</v>
       </c>
       <c r="G11">
-        <v>25.59350391047992</v>
+        <v>25.59350391047986</v>
       </c>
       <c r="H11">
-        <v>20.77129801261972</v>
+        <v>20.77129801261974</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18.10530528996499</v>
+        <v>18.10530528996487</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.56289569537521</v>
+        <v>40.562895695375</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.87118724293735</v>
+        <v>19.87118724293724</v>
       </c>
       <c r="C12">
-        <v>15.80938897902335</v>
+        <v>15.8093889790233</v>
       </c>
       <c r="D12">
-        <v>2.964409026501726</v>
+        <v>2.964409026501655</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.6563377670398</v>
+        <v>34.65633776703977</v>
       </c>
       <c r="G12">
         <v>25.87192702688508</v>
       </c>
       <c r="H12">
-        <v>20.94718591778246</v>
+        <v>20.9471859177825</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>18.32123177735504</v>
+        <v>18.32123177735495</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.2606441690384</v>
+        <v>41.2606441690385</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.81908958049809</v>
+        <v>19.8190895804982</v>
       </c>
       <c r="C13">
-        <v>15.7669932894351</v>
+        <v>15.76699328943505</v>
       </c>
       <c r="D13">
-        <v>2.969927729487294</v>
+        <v>2.969927729487228</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.56768887052953</v>
+        <v>34.56768887052946</v>
       </c>
       <c r="G13">
-        <v>25.81188073096722</v>
+        <v>25.81188073096716</v>
       </c>
       <c r="H13">
-        <v>20.90914977365872</v>
+        <v>20.90914977365867</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.27491212116352</v>
+        <v>18.27491212116357</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.11009758163922</v>
+        <v>41.11009758163907</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.64835161899975</v>
+        <v>19.64835161899971</v>
       </c>
       <c r="C14">
-        <v>15.62813248996162</v>
+        <v>15.62813248996152</v>
       </c>
       <c r="D14">
-        <v>2.98780988590175</v>
+        <v>2.987809885901749</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.27866153511341</v>
+        <v>34.27866153511352</v>
       </c>
       <c r="G14">
-        <v>25.61637317778661</v>
+        <v>25.61637317778668</v>
       </c>
       <c r="H14">
-        <v>20.78569892012337</v>
+        <v>20.78569892012343</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18.12315258271004</v>
+        <v>18.12315258270998</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.62018306614967</v>
+        <v>40.62018306614964</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.54312725058117</v>
+        <v>19.54312725058115</v>
       </c>
       <c r="C15">
-        <v>15.54261481930633</v>
+        <v>15.54261481930612</v>
       </c>
       <c r="D15">
         <v>2.998677760852122</v>
@@ -918,25 +918,25 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.10167306377239</v>
+        <v>34.10167306377242</v>
       </c>
       <c r="G15">
-        <v>25.49685512077751</v>
+        <v>25.49685512077755</v>
       </c>
       <c r="H15">
-        <v>20.71053027165456</v>
+        <v>20.71053027165459</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18.02965691691854</v>
+        <v>18.02965691691849</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.32082145139754</v>
+        <v>40.32082145139753</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.93027989590264</v>
+        <v>18.93027989590262</v>
       </c>
       <c r="C16">
-        <v>15.04543433095698</v>
+        <v>15.045434330957</v>
       </c>
       <c r="D16">
-        <v>3.059773358290446</v>
+        <v>3.059773358290581</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.08783948311299</v>
+        <v>33.08783948311304</v>
       </c>
       <c r="G16">
-        <v>24.81529836645592</v>
+        <v>24.81529836645595</v>
       </c>
       <c r="H16">
-        <v>20.28636788198672</v>
+        <v>20.28636788198674</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>17.48561816918413</v>
+        <v>17.4856181691841</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.61331822553043</v>
+        <v>38.61331822553042</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,10 +985,10 @@
         <v>18.54552011287597</v>
       </c>
       <c r="C17">
-        <v>14.73403674193352</v>
+        <v>14.73403674193357</v>
       </c>
       <c r="D17">
-        <v>3.096320467327098</v>
+        <v>3.096320467327031</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -997,22 +997,22 @@
         <v>32.46595104721647</v>
       </c>
       <c r="G17">
-        <v>24.39993558281631</v>
+        <v>24.39993558281628</v>
       </c>
       <c r="H17">
-        <v>20.03177885129844</v>
+        <v>20.03177885129843</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>17.14450086436738</v>
+        <v>17.14450086436742</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.56998019527118</v>
+        <v>37.56998019527123</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.32097737548325</v>
+        <v>18.32097737548321</v>
       </c>
       <c r="C18">
         <v>14.55256083619779</v>
       </c>
       <c r="D18">
-        <v>3.117042435801371</v>
+        <v>3.117042435801372</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.10818316140273</v>
+        <v>32.10818316140264</v>
       </c>
       <c r="G18">
-        <v>24.16196145123526</v>
+        <v>24.1619614512352</v>
       </c>
       <c r="H18">
-        <v>19.88731756195389</v>
+        <v>19.88731756195384</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.94558911925762</v>
+        <v>16.94558911925755</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>36.97035379063881</v>
+        <v>36.97035379063878</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.24439401990859</v>
+        <v>18.2443940199085</v>
       </c>
       <c r="C19">
-        <v>14.49070767874024</v>
+        <v>14.49070767874027</v>
       </c>
       <c r="D19">
-        <v>3.124010958047029</v>
+        <v>3.124010958046964</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>24.08154138809358</v>
       </c>
       <c r="H19">
-        <v>19.8387361204258</v>
+        <v>19.83873612042582</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16.87777520344962</v>
+        <v>16.87777520344956</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.58681351757078</v>
+        <v>18.58681351757064</v>
       </c>
       <c r="C20">
-        <v>14.7674302272901</v>
+        <v>14.76743022729002</v>
       </c>
       <c r="D20">
-        <v>3.092461825008239</v>
+        <v>3.092461825008307</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.53215793503323</v>
+        <v>32.53215793503327</v>
       </c>
       <c r="G20">
-        <v>24.44405371386871</v>
+        <v>24.44405371386878</v>
       </c>
       <c r="H20">
-        <v>20.05867429036797</v>
+        <v>20.05867429036805</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>17.18109378835561</v>
+        <v>17.18109378835551</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.68097439148333</v>
+        <v>37.68097439148328</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,10 +1137,10 @@
         <v>19.69863538587928</v>
       </c>
       <c r="C21">
-        <v>15.66901533755551</v>
+        <v>15.66901533755557</v>
       </c>
       <c r="D21">
-        <v>2.982575595851347</v>
+        <v>2.982575595851346</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <v>34.36354473890481</v>
       </c>
       <c r="G21">
-        <v>25.67374861344248</v>
+        <v>25.67374861344249</v>
       </c>
       <c r="H21">
-        <v>20.82186523653868</v>
+        <v>20.82186523653869</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>40.76392373294971</v>
+        <v>40.76392373294964</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.39650602230918</v>
+        <v>20.39650602230921</v>
       </c>
       <c r="C22">
-        <v>16.23755013876426</v>
+        <v>16.23755013876417</v>
       </c>
       <c r="D22">
-        <v>2.907055906146868</v>
+        <v>2.907055906146867</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.56237050157115</v>
+        <v>35.56237050157117</v>
       </c>
       <c r="G22">
-        <v>26.48775612192349</v>
+        <v>26.48775612192351</v>
       </c>
       <c r="H22">
-        <v>21.34046767040224</v>
+        <v>21.34046767040225</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>18.78862377764011</v>
+        <v>18.78862377764004</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.02667313560679</v>
+        <v>20.02667313560686</v>
       </c>
       <c r="C23">
-        <v>15.93598935660692</v>
+        <v>15.93598935660705</v>
       </c>
       <c r="D23">
-        <v>2.947761181077885</v>
+        <v>2.947761181077882</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.92219287054711</v>
+        <v>34.92219287054719</v>
       </c>
       <c r="G23">
-        <v>26.05222946597633</v>
+        <v>26.05222946597639</v>
       </c>
       <c r="H23">
-        <v>21.0617340754994</v>
+        <v>21.06173407549945</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>18.45950893240512</v>
+        <v>18.45950893240517</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41.71299725205867</v>
+        <v>41.7129972520585</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.56815517165754</v>
+        <v>18.56815517165751</v>
       </c>
       <c r="C24">
-        <v>14.75234066595744</v>
+        <v>14.75234066595742</v>
       </c>
       <c r="D24">
-        <v>3.094207208484118</v>
+        <v>3.094207208484117</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.50222655891385</v>
+        <v>32.50222655891391</v>
       </c>
       <c r="G24">
-        <v>24.42410536039647</v>
+        <v>24.42410536039651</v>
       </c>
       <c r="H24">
         <v>20.04650894968286</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>17.1645588459316</v>
+        <v>17.16455884593157</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.63079353136433</v>
+        <v>37.63079353136437</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.8708900404201</v>
+        <v>16.87089004042016</v>
       </c>
       <c r="C25">
-        <v>13.38480026839578</v>
+        <v>13.38480026839572</v>
       </c>
       <c r="D25">
-        <v>3.241029804397873</v>
+        <v>3.241029804397671</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.88916761831661</v>
+        <v>29.8891676183166</v>
       </c>
       <c r="G25">
-        <v>22.70347694441913</v>
+        <v>22.70347694441909</v>
       </c>
       <c r="H25">
-        <v>19.026256174373</v>
+        <v>19.02625617437293</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15.6640390549458</v>
+        <v>15.66403905494584</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.23937645264002</v>
+        <v>33.23937645263996</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.51325204797049</v>
+        <v>15.51309880567103</v>
       </c>
       <c r="C2">
-        <v>12.2975565196605</v>
+        <v>12.29438025631188</v>
       </c>
       <c r="D2">
-        <v>3.343372845168967</v>
+        <v>3.343359722611269</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.95791390304265</v>
+        <v>27.93935974930078</v>
       </c>
       <c r="G2">
-        <v>21.4624562315502</v>
+        <v>20.12670892435447</v>
       </c>
       <c r="H2">
-        <v>18.33136012672343</v>
+        <v>21.49677962824169</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>18.3186117168205</v>
       </c>
       <c r="J2">
-        <v>14.46937153707749</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.46824198716226</v>
       </c>
       <c r="L2">
-        <v>29.92718632116559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>29.92707931535528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.52512370984003</v>
+        <v>14.52511313914043</v>
       </c>
       <c r="C3">
-        <v>11.50961631063191</v>
+        <v>11.50682532843401</v>
       </c>
       <c r="D3">
-        <v>3.410507419033878</v>
+        <v>3.410313129467353</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.64576509237267</v>
+        <v>26.62841419513457</v>
       </c>
       <c r="G3">
-        <v>20.6375030679048</v>
+        <v>19.06079215624031</v>
       </c>
       <c r="H3">
-        <v>17.89274141415278</v>
+        <v>20.67064354266977</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17.88097516126902</v>
       </c>
       <c r="J3">
-        <v>13.60346798695934</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.60257612418027</v>
       </c>
       <c r="L3">
-        <v>27.60265492174003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.60260290403137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.88464938510445</v>
+        <v>13.88472839684656</v>
       </c>
       <c r="C4">
-        <v>11.00034861460984</v>
+        <v>10.99780543490723</v>
       </c>
       <c r="D4">
-        <v>3.450986359092476</v>
+        <v>3.450679995564604</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.83977006920314</v>
+        <v>25.82318537186016</v>
       </c>
       <c r="G4">
-        <v>20.13939463558791</v>
+        <v>18.40182337803581</v>
       </c>
       <c r="H4">
-        <v>17.63861619060896</v>
+        <v>20.17184508455749</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>17.6274682445624</v>
       </c>
       <c r="J4">
-        <v>13.04406265823573</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.0433233693347</v>
       </c>
       <c r="L4">
-        <v>26.12826893394673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>26.12824556222498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.61514168695055</v>
+        <v>13.61525786993153</v>
       </c>
       <c r="C5">
-        <v>10.78638532600221</v>
+        <v>10.78394620887968</v>
       </c>
       <c r="D5">
-        <v>3.467340422690985</v>
+        <v>3.466988104973747</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.51152263357668</v>
+        <v>25.49525701523769</v>
       </c>
       <c r="G5">
-        <v>19.93864064216927</v>
+        <v>18.1323713501531</v>
       </c>
       <c r="H5">
-        <v>17.53877543112136</v>
+        <v>19.97081927440196</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>17.52788288651088</v>
       </c>
       <c r="J5">
-        <v>12.80914386348241</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.80846862153445</v>
       </c>
       <c r="L5">
-        <v>25.51462762718773</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.5146148776692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.5698757896812</v>
+        <v>13.56999819020776</v>
       </c>
       <c r="C6">
-        <v>10.7504677474138</v>
+        <v>10.7480461036356</v>
       </c>
       <c r="D6">
-        <v>3.470048670533084</v>
+        <v>3.469688703109328</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.45703929579282</v>
+        <v>25.44082707032821</v>
       </c>
       <c r="G6">
-        <v>19.90544404385006</v>
+        <v>18.08758122743375</v>
       </c>
       <c r="H6">
-        <v>17.52241851238572</v>
+        <v>19.93757811447822</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>17.51156857192761</v>
       </c>
       <c r="J6">
-        <v>12.76971645023705</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.76905196245253</v>
       </c>
       <c r="L6">
-        <v>25.41193302398785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.41192198072586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.88104918398325</v>
+        <v>13.8811286941064</v>
       </c>
       <c r="C7">
-        <v>10.99748910621217</v>
+        <v>10.9949473171112</v>
       </c>
       <c r="D7">
-        <v>3.451207432937898</v>
+        <v>3.450900450891086</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.83534196260895</v>
+        <v>25.81876154089562</v>
       </c>
       <c r="G7">
-        <v>20.13667800189808</v>
+        <v>18.39819283426622</v>
       </c>
       <c r="H7">
-        <v>17.63725478520232</v>
+        <v>20.16912474676928</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17.62611027023905</v>
       </c>
       <c r="J7">
-        <v>13.04092259317262</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.04018416017547</v>
       </c>
       <c r="L7">
-        <v>26.12004623245273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>26.12002300796779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.17953750346846</v>
+        <v>15.17943314127587</v>
       </c>
       <c r="C8">
-        <v>12.0311409170825</v>
+        <v>12.0280953159215</v>
       </c>
       <c r="D8">
-        <v>3.366703976490302</v>
+        <v>3.366628514220645</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.50570137780983</v>
+        <v>27.48755643091633</v>
       </c>
       <c r="G8">
-        <v>21.17632370845431</v>
+        <v>19.76021809784146</v>
       </c>
       <c r="H8">
-        <v>18.17690937615687</v>
+        <v>21.2102318483076</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>18.16449622323622</v>
       </c>
       <c r="J8">
-        <v>14.17657111824945</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.1755222661972</v>
       </c>
       <c r="L8">
-        <v>29.13483666331293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>29.13474983861654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.45928947589607</v>
+        <v>17.45883309077104</v>
       </c>
       <c r="C9">
-        <v>13.85779174104877</v>
+        <v>13.85383636684112</v>
       </c>
       <c r="D9">
-        <v>3.192681142724967</v>
+        <v>3.193056950831782</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.77043190175163</v>
+        <v>30.74943203608741</v>
       </c>
       <c r="G9">
-        <v>23.2789067611645</v>
+        <v>22.39021233653149</v>
       </c>
       <c r="H9">
-        <v>19.36074345463955</v>
+        <v>23.31595877922396</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>19.34597794426484</v>
       </c>
       <c r="J9">
-        <v>16.18340410139015</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.18179037019613</v>
       </c>
       <c r="L9">
-        <v>34.72600563692178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>34.72573914624066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.97374524965386</v>
+        <v>18.97302562209322</v>
       </c>
       <c r="C10">
-        <v>15.08064741825934</v>
+        <v>15.07605609256802</v>
       </c>
       <c r="D10">
-        <v>3.05555952898638</v>
+        <v>3.056271883344455</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.15879767578412</v>
+        <v>33.13581521782552</v>
       </c>
       <c r="G10">
-        <v>24.86282561997164</v>
+        <v>24.29700555458595</v>
       </c>
       <c r="H10">
-        <v>20.31569188572504</v>
+        <v>24.90234758553363</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20.29929354461723</v>
       </c>
       <c r="J10">
-        <v>17.52417503598764</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.52216097976502</v>
       </c>
       <c r="L10">
-        <v>38.73250717129203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>38.73204596376458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.62826760283121</v>
+        <v>19.62742499404694</v>
       </c>
       <c r="C11">
-        <v>15.61180629547775</v>
+        <v>15.60692913943638</v>
       </c>
       <c r="D11">
-        <v>2.989893114244938</v>
+        <v>2.990761623043187</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.24481331591135</v>
+        <v>34.22094774331326</v>
       </c>
       <c r="G11">
-        <v>25.59350391047986</v>
+        <v>25.16096291350409</v>
       </c>
       <c r="H11">
-        <v>20.77129801261974</v>
+        <v>25.63418402780932</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>20.75417795650131</v>
       </c>
       <c r="J11">
-        <v>18.10530528996487</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.10310956426449</v>
       </c>
       <c r="L11">
-        <v>40.562895695375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>40.56232131943538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.87118724293724</v>
+        <v>19.87029740107549</v>
       </c>
       <c r="C12">
-        <v>15.8093889790233</v>
+        <v>15.80440374841775</v>
       </c>
       <c r="D12">
-        <v>2.964409026501655</v>
+        <v>2.965337322987908</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.65633776703977</v>
+        <v>34.63213972782842</v>
       </c>
       <c r="G12">
-        <v>25.87192702688508</v>
+        <v>25.48796730708207</v>
       </c>
       <c r="H12">
-        <v>20.9471859177825</v>
+        <v>25.91305082216831</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>20.92979542004432</v>
       </c>
       <c r="J12">
-        <v>18.32123177735495</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.31896707281242</v>
       </c>
       <c r="L12">
-        <v>41.2606441690385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>41.26002190678386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.8190895804982</v>
+        <v>19.81820994391208</v>
       </c>
       <c r="C13">
-        <v>15.76699328943505</v>
+        <v>15.76203133322303</v>
       </c>
       <c r="D13">
-        <v>2.969927729487228</v>
+        <v>2.97084311641414</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.56768887052946</v>
+        <v>34.54356236187497</v>
       </c>
       <c r="G13">
-        <v>25.81188073096716</v>
+        <v>25.41754084564635</v>
       </c>
       <c r="H13">
-        <v>20.90914977365867</v>
+        <v>25.85290874083736</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>20.89181739826769</v>
       </c>
       <c r="J13">
-        <v>18.27491212116357</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.27266228486592</v>
       </c>
       <c r="L13">
-        <v>41.11009758163907</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>41.1094858880813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.64835161899971</v>
+        <v>19.64750513879128</v>
       </c>
       <c r="C14">
-        <v>15.62813248996152</v>
+        <v>15.623246441382</v>
       </c>
       <c r="D14">
-        <v>2.987809885901749</v>
+        <v>2.988683298892485</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.27866153511352</v>
+        <v>34.25476857639359</v>
       </c>
       <c r="G14">
-        <v>25.61637317778668</v>
+        <v>25.18786637631407</v>
       </c>
       <c r="H14">
-        <v>20.78569892012343</v>
+        <v>25.65708969290866</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>20.76855655907764</v>
       </c>
       <c r="J14">
-        <v>18.12315258270998</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.12095118728371</v>
       </c>
       <c r="L14">
-        <v>40.62018306614964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>40.61960486256371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.54312725058115</v>
+        <v>19.54230098717127</v>
       </c>
       <c r="C15">
-        <v>15.54261481930612</v>
+        <v>15.53777527683533</v>
       </c>
       <c r="D15">
-        <v>2.998677760852122</v>
+        <v>2.999525556319147</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.10167306377242</v>
+        <v>34.07792338859817</v>
       </c>
       <c r="G15">
-        <v>25.49685512077755</v>
+        <v>25.04717652423771</v>
       </c>
       <c r="H15">
-        <v>20.71053027165459</v>
+        <v>25.53738150910403</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>20.69350466330254</v>
       </c>
       <c r="J15">
-        <v>18.02965691691849</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.02748516112342</v>
       </c>
       <c r="L15">
-        <v>40.32082145139753</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>40.32026304964896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.93027989590262</v>
+        <v>18.9295682238286</v>
       </c>
       <c r="C16">
-        <v>15.045434330957</v>
+        <v>15.04086172707319</v>
       </c>
       <c r="D16">
-        <v>3.059773358290581</v>
+        <v>3.060475586323085</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.08783948311304</v>
+        <v>33.06491505779724</v>
       </c>
       <c r="G16">
-        <v>24.81529836645595</v>
+        <v>24.24049975265043</v>
       </c>
       <c r="H16">
-        <v>20.28636788198674</v>
+        <v>24.85474534783307</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>20.27001712013749</v>
       </c>
       <c r="J16">
-        <v>17.4856181691841</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.48361597368876</v>
       </c>
       <c r="L16">
-        <v>38.61331822553042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>38.61286380608055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.54552011287597</v>
+        <v>18.54487777484746</v>
       </c>
       <c r="C17">
-        <v>14.73403674193357</v>
+        <v>14.72962855923083</v>
       </c>
       <c r="D17">
-        <v>3.096320467327031</v>
+        <v>3.09693431467517</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.46595104721647</v>
+        <v>32.4435372325543</v>
       </c>
       <c r="G17">
-        <v>24.39993558281628</v>
+        <v>23.74493732215493</v>
       </c>
       <c r="H17">
-        <v>20.03177885129843</v>
+        <v>24.43872928466469</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>20.01584741729643</v>
       </c>
       <c r="J17">
-        <v>17.14450086436742</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.14260263212662</v>
       </c>
       <c r="L17">
-        <v>37.56998019527123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>37.56958239839399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.32097737548321</v>
+        <v>18.32037462512077</v>
       </c>
       <c r="C18">
-        <v>14.55256083619779</v>
+        <v>14.54824757281113</v>
       </c>
       <c r="D18">
-        <v>3.117042435801372</v>
+        <v>3.11760572115418</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.10818316140264</v>
+        <v>32.08606486069787</v>
       </c>
       <c r="G18">
-        <v>24.1619614512352</v>
+        <v>23.45954913679252</v>
       </c>
       <c r="H18">
-        <v>19.88731756195384</v>
+        <v>24.20038263983864</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>19.87162931777242</v>
       </c>
       <c r="J18">
-        <v>16.94558911925755</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.94375074139714</v>
       </c>
       <c r="L18">
-        <v>36.97035379063878</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>36.96998636543762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.2443940199085</v>
+        <v>18.2438046289975</v>
       </c>
       <c r="C19">
-        <v>14.49070767874027</v>
+        <v>14.48642662278294</v>
       </c>
       <c r="D19">
-        <v>3.124010958046964</v>
+        <v>3.124557165018213</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.9870290056958</v>
+        <v>31.96501109340241</v>
       </c>
       <c r="G19">
-        <v>24.08154138809358</v>
+        <v>23.3628530712082</v>
       </c>
       <c r="H19">
-        <v>19.83873612042582</v>
+        <v>24.11983700420551</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>19.82313056247621</v>
       </c>
       <c r="J19">
-        <v>16.87777520344956</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.8759571083061</v>
       </c>
       <c r="L19">
-        <v>36.76732261608362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>36.76696513239838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.58681351757064</v>
+        <v>18.58616383036687</v>
       </c>
       <c r="C20">
-        <v>14.76743022729002</v>
+        <v>14.76300450787884</v>
       </c>
       <c r="D20">
-        <v>3.092461825008307</v>
+        <v>3.093085051065629</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.53215793503327</v>
+        <v>32.50968958088761</v>
       </c>
       <c r="G20">
-        <v>24.44405371386878</v>
+        <v>23.79772545927751</v>
       </c>
       <c r="H20">
-        <v>20.05867429036805</v>
+        <v>24.48291662304205</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>20.04269801148908</v>
       </c>
       <c r="J20">
-        <v>17.18109378835551</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.17918448482256</v>
       </c>
       <c r="L20">
-        <v>37.68097439148328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>37.68057080307826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.69863538587928</v>
+        <v>19.69777918647761</v>
       </c>
       <c r="C21">
-        <v>15.66901533755557</v>
+        <v>15.6641069915466</v>
       </c>
       <c r="D21">
-        <v>2.982575595851346</v>
+        <v>2.983461317811383</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.36354473890481</v>
+        <v>34.33958313520596</v>
       </c>
       <c r="G21">
-        <v>25.67374861344249</v>
+        <v>25.25532807121568</v>
       </c>
       <c r="H21">
-        <v>20.82186523653869</v>
+        <v>25.71455648142057</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>20.80466698853897</v>
       </c>
       <c r="J21">
-        <v>18.16784028731325</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.16562467073365</v>
       </c>
       <c r="L21">
-        <v>40.76392373294964</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>40.76333584462215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.39650602230921</v>
+        <v>20.39551088980355</v>
       </c>
       <c r="C22">
-        <v>16.23755013876417</v>
+        <v>16.23232712570621</v>
       </c>
       <c r="D22">
-        <v>2.907055906146867</v>
+        <v>2.908117151049484</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.56237050157117</v>
+        <v>35.53744379170236</v>
       </c>
       <c r="G22">
-        <v>26.48775612192351</v>
+        <v>26.20732644343906</v>
       </c>
       <c r="H22">
-        <v>21.34046767040225</v>
+        <v>26.52986512440087</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>21.3224872052136</v>
       </c>
       <c r="J22">
-        <v>18.78862377764004</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.78620675836045</v>
       </c>
       <c r="L22">
-        <v>42.80832296255227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>42.80758398679539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.02667313560686</v>
+        <v>20.02575258639753</v>
       </c>
       <c r="C23">
-        <v>15.93598935660705</v>
+        <v>15.93093434219831</v>
       </c>
       <c r="D23">
-        <v>2.947761181077882</v>
+        <v>2.948728295565111</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.92219287054719</v>
+        <v>34.89778058355732</v>
       </c>
       <c r="G23">
-        <v>26.05222946597639</v>
+        <v>25.69912598442621</v>
       </c>
       <c r="H23">
-        <v>21.06173407549945</v>
+        <v>26.09364118979729</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>21.04416970576366</v>
       </c>
       <c r="J23">
-        <v>18.45950893240517</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.45719960471232</v>
       </c>
       <c r="L23">
-        <v>41.7129972520585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>41.71234242371065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.56815517165751</v>
+        <v>18.56750880785264</v>
       </c>
       <c r="C24">
-        <v>14.75234066595742</v>
+        <v>14.74792287364834</v>
       </c>
       <c r="D24">
-        <v>3.094207208484117</v>
+        <v>3.094826193666159</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.50222655891391</v>
+        <v>32.47978285591958</v>
       </c>
       <c r="G24">
-        <v>24.42410536039651</v>
+        <v>23.77386146937389</v>
       </c>
       <c r="H24">
-        <v>20.04650894968286</v>
+        <v>24.46293697139688</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>20.03055293858208</v>
       </c>
       <c r="J24">
-        <v>17.16455884593157</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.16265454744812</v>
       </c>
       <c r="L24">
-        <v>37.63079353136437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37.6303925680017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.87089004042016</v>
+        <v>16.87052897445823</v>
       </c>
       <c r="C25">
-        <v>13.38480026839572</v>
+        <v>13.38108418014454</v>
       </c>
       <c r="D25">
-        <v>3.241029804397671</v>
+        <v>3.241283214407795</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.8891676183166</v>
+        <v>29.86891834179838</v>
       </c>
       <c r="G25">
-        <v>22.70347694441909</v>
+        <v>21.6835120477544</v>
       </c>
       <c r="H25">
-        <v>19.02625617437293</v>
+        <v>22.73964989748654</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>19.01211084025315</v>
       </c>
       <c r="J25">
-        <v>15.66403905494584</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.66257467234252</v>
       </c>
       <c r="L25">
-        <v>33.23937645263996</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>33.23916686197843</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.51309880567103</v>
+        <v>17.56735602440147</v>
       </c>
       <c r="C2">
-        <v>12.29438025631188</v>
+        <v>11.11549228584471</v>
       </c>
       <c r="D2">
-        <v>3.343359722611269</v>
+        <v>3.429421656711423</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.93935974930078</v>
+        <v>40.16198535233195</v>
       </c>
       <c r="G2">
-        <v>20.12670892435447</v>
+        <v>2.107291357456919</v>
       </c>
       <c r="H2">
-        <v>21.49677962824169</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>18.3186117168205</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.803040095391347</v>
       </c>
       <c r="K2">
-        <v>14.46824198716226</v>
+        <v>15.15092518005609</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.92707931535528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.66355441680213</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>29.50559264359961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.52511313914043</v>
+        <v>16.31719830806831</v>
       </c>
       <c r="C3">
-        <v>11.50682532843401</v>
+        <v>10.34128138664802</v>
       </c>
       <c r="D3">
-        <v>3.410313129467353</v>
+        <v>3.386719483502879</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.62841419513457</v>
+        <v>38.74934192637222</v>
       </c>
       <c r="G3">
-        <v>19.06079215624031</v>
+        <v>2.117257226155701</v>
       </c>
       <c r="H3">
-        <v>20.67064354266977</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17.88097516126902</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.771293176466401</v>
       </c>
       <c r="K3">
-        <v>13.60257612418027</v>
+        <v>14.09423855430049</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.60260290403137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.04445897878818</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>28.56879872647654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.88472839684656</v>
+        <v>15.50978437622214</v>
       </c>
       <c r="C4">
-        <v>10.99780543490723</v>
+        <v>9.841220591391313</v>
       </c>
       <c r="D4">
-        <v>3.450679995564604</v>
+        <v>3.361773996743611</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.82318537186016</v>
+        <v>37.89149831012734</v>
       </c>
       <c r="G4">
-        <v>18.40182337803581</v>
+        <v>2.123518576792291</v>
       </c>
       <c r="H4">
-        <v>20.17184508455749</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17.6274682445624</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.755206258602364</v>
       </c>
       <c r="K4">
-        <v>13.0433233693347</v>
+        <v>13.41141682703381</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.12824556222498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.66005922938871</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>28.00385673794367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.61525786993153</v>
+        <v>15.17062335263254</v>
       </c>
       <c r="C5">
-        <v>10.78394620887968</v>
+        <v>9.631141498880215</v>
       </c>
       <c r="D5">
-        <v>3.466988104973747</v>
+        <v>3.351939556828526</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.49525701523769</v>
+        <v>37.54457298582541</v>
       </c>
       <c r="G5">
-        <v>18.1323713501531</v>
+        <v>2.12610813213624</v>
       </c>
       <c r="H5">
-        <v>19.97081927440196</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>17.52788288651088</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.749479203341295</v>
       </c>
       <c r="K5">
-        <v>12.80846862153445</v>
+        <v>13.12448968560848</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.5146148776692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.50253370247287</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>27.77633651047755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.56999819020776</v>
+        <v>15.11369054317942</v>
       </c>
       <c r="C6">
-        <v>10.7480461036356</v>
+        <v>9.595874943738272</v>
       </c>
       <c r="D6">
-        <v>3.469688703109328</v>
+        <v>3.350326859930346</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.44082707032821</v>
+        <v>37.48713465596114</v>
       </c>
       <c r="G6">
-        <v>18.08758122743375</v>
+        <v>2.126540483336672</v>
       </c>
       <c r="H6">
-        <v>19.93757811447822</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>17.51156857192761</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.748577464575191</v>
       </c>
       <c r="K6">
-        <v>12.76905196245253</v>
+        <v>13.07631853715285</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.41192198072586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.47632991417591</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>27.73872366852855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.8811286941064</v>
+        <v>15.50525151498347</v>
       </c>
       <c r="C7">
-        <v>10.9949473171112</v>
+        <v>9.838413017564811</v>
       </c>
       <c r="D7">
-        <v>3.450900450891086</v>
+        <v>3.361640011589654</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.81876154089562</v>
+        <v>37.88680844873583</v>
       </c>
       <c r="G7">
-        <v>18.39819283426622</v>
+        <v>2.123553343731618</v>
       </c>
       <c r="H7">
-        <v>20.16912474676928</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17.62611027023905</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.755125703416584</v>
       </c>
       <c r="K7">
-        <v>13.04018416017547</v>
+        <v>13.40758249202451</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.12002300796779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.65793806482312</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>28.00077722732626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.17943314127587</v>
+        <v>17.14448740070396</v>
       </c>
       <c r="C8">
-        <v>12.0280953159215</v>
+        <v>10.85361248834905</v>
       </c>
       <c r="D8">
-        <v>3.366628514220645</v>
+        <v>3.41444004173808</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.48755643091633</v>
+        <v>39.67307254262658</v>
       </c>
       <c r="G8">
-        <v>19.76021809784146</v>
+        <v>2.110699457079421</v>
       </c>
       <c r="H8">
-        <v>21.2102318483076</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>18.16449622323622</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.79136984864927</v>
       </c>
       <c r="K8">
-        <v>14.1755222661972</v>
+        <v>14.79356490428412</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.13474983861654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.45108378600114</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>29.18052491820213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.45883309077104</v>
+        <v>20.04927163744</v>
       </c>
       <c r="C9">
-        <v>13.85383636684112</v>
+        <v>12.65293177601018</v>
       </c>
       <c r="D9">
-        <v>3.193056950831782</v>
+        <v>3.527617977560743</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.74943203608741</v>
+        <v>43.24241355343255</v>
       </c>
       <c r="G9">
-        <v>22.39021233653149</v>
+        <v>2.086511582306843</v>
       </c>
       <c r="H9">
-        <v>23.31595877922396</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>19.34597794426484</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.89076877740082</v>
       </c>
       <c r="K9">
-        <v>16.18179037019613</v>
+        <v>17.24735801618391</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.72573914624066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.96573243119665</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>31.57122917201179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.97302562209322</v>
+        <v>22.00407250627399</v>
       </c>
       <c r="C10">
-        <v>15.07605609256802</v>
+        <v>13.86487915587469</v>
       </c>
       <c r="D10">
-        <v>3.056271883344455</v>
+        <v>3.616038966842435</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.13581521782552</v>
+        <v>45.89731909738183</v>
       </c>
       <c r="G10">
-        <v>24.29700555458595</v>
+        <v>2.069191505318219</v>
       </c>
       <c r="H10">
-        <v>24.90234758553363</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>20.29929354461723</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.982954794293756</v>
       </c>
       <c r="K10">
-        <v>17.52216097976502</v>
+        <v>18.8978022662147</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.73204596376458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.37299946357749</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.37159773292088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.62742499404694</v>
+        <v>22.85679769106886</v>
       </c>
       <c r="C11">
-        <v>15.60692913943638</v>
+        <v>14.39399838571975</v>
       </c>
       <c r="D11">
-        <v>2.990761623043187</v>
+        <v>3.657291586378593</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.22094774331326</v>
+        <v>47.11184362866812</v>
       </c>
       <c r="G11">
-        <v>25.16096291350409</v>
+        <v>2.06136693505506</v>
       </c>
       <c r="H11">
-        <v>25.63418402780932</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>20.75417795650131</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.02949885430977</v>
       </c>
       <c r="K11">
-        <v>18.10310956426449</v>
+        <v>19.61766895383726</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.56232131943538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.99879088515966</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.20032993922336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.87029740107549</v>
+        <v>23.174671716365</v>
       </c>
       <c r="C12">
-        <v>15.80440374841775</v>
+        <v>14.59132357065204</v>
       </c>
       <c r="D12">
-        <v>2.965337322987908</v>
+        <v>3.673052378759746</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.63213972782842</v>
+        <v>47.57280468644624</v>
       </c>
       <c r="G12">
-        <v>25.48796730708207</v>
+        <v>2.058407719002145</v>
       </c>
       <c r="H12">
-        <v>25.91305082216831</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>20.92979542004432</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.047826836837292</v>
       </c>
       <c r="K12">
-        <v>18.31896707281242</v>
+        <v>19.8860114198683</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.26002190678386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>17.23206661030004</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>34.51562701186283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.81820994391208</v>
+        <v>23.10643204464884</v>
       </c>
       <c r="C13">
-        <v>15.76203133322303</v>
+        <v>14.54895870445924</v>
       </c>
       <c r="D13">
-        <v>2.97084311641414</v>
+        <v>3.669651938577354</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.54356236187497</v>
+        <v>47.47347983271256</v>
       </c>
       <c r="G13">
-        <v>25.41754084564635</v>
+        <v>2.059044940832492</v>
       </c>
       <c r="H13">
-        <v>25.85290874083736</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>20.89181739826769</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.043847644482587</v>
       </c>
       <c r="K13">
-        <v>18.27266228486592</v>
+        <v>19.82840505436329</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.1094858880813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>17.18198816847234</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>34.44765475950925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.64750513879128</v>
+        <v>22.88304894523019</v>
       </c>
       <c r="C14">
-        <v>15.623246441382</v>
+        <v>14.41029246035506</v>
       </c>
       <c r="D14">
-        <v>2.988683298892485</v>
+        <v>3.65858548935029</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.25476857639359</v>
+        <v>47.14974546836131</v>
       </c>
       <c r="G14">
-        <v>25.18786637631407</v>
+        <v>2.061123427781566</v>
       </c>
       <c r="H14">
-        <v>25.65708969290866</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>20.76855655907764</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.030992381394426</v>
       </c>
       <c r="K14">
-        <v>18.12095118728371</v>
+        <v>19.63982976309411</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.61960486256371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17.01805572689293</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>34.22623943687033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.54230098717127</v>
+        <v>22.74557157262247</v>
       </c>
       <c r="C15">
-        <v>15.53777527683533</v>
+        <v>14.32496417021394</v>
       </c>
       <c r="D15">
-        <v>2.999525556319147</v>
+        <v>3.651824876662219</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.07792338859817</v>
+        <v>46.9515887754294</v>
       </c>
       <c r="G15">
-        <v>25.04717652423771</v>
+        <v>2.062396924660285</v>
       </c>
       <c r="H15">
-        <v>25.53738150910403</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>20.69350466330254</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.023210933526297</v>
       </c>
       <c r="K15">
-        <v>18.02748516112342</v>
+        <v>19.52377381252182</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.32026304964896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.91716597378228</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.09081135568614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.9295682238286</v>
+        <v>21.94762802451499</v>
       </c>
       <c r="C16">
-        <v>15.04086172707319</v>
+        <v>13.82986582157235</v>
       </c>
       <c r="D16">
-        <v>3.060475586323085</v>
+        <v>3.613362953140152</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.06491505779724</v>
+        <v>45.81808775117629</v>
       </c>
       <c r="G16">
-        <v>24.24049975265043</v>
+        <v>2.069703619512548</v>
       </c>
       <c r="H16">
-        <v>24.85474534783307</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>20.27001712013749</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.980009107171477</v>
       </c>
       <c r="K16">
-        <v>17.48361597368876</v>
+        <v>18.85015089542122</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.61286380608055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.33157570823858</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.31763905346331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.54487777484746</v>
+        <v>21.44890844630233</v>
       </c>
       <c r="C17">
-        <v>14.72962855923083</v>
+        <v>13.52055561776651</v>
       </c>
       <c r="D17">
-        <v>3.09693431467517</v>
+        <v>3.590024893948647</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.4435372325543</v>
+        <v>45.12448399942848</v>
       </c>
       <c r="G17">
-        <v>23.74493732215493</v>
+        <v>2.074197248459358</v>
       </c>
       <c r="H17">
-        <v>24.43872928466469</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>20.01584741729643</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.954713905122106</v>
       </c>
       <c r="K17">
-        <v>17.14260263212662</v>
+        <v>18.42911409095919</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.56958239839399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.96556728994781</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>32.8458510491994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.32037462512077</v>
+        <v>21.15860602579286</v>
       </c>
       <c r="C18">
-        <v>14.54824757281113</v>
+        <v>13.34054885485181</v>
       </c>
       <c r="D18">
-        <v>3.11760572115418</v>
+        <v>3.576698811670818</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.08606486069787</v>
+        <v>44.72617164592926</v>
       </c>
       <c r="G18">
-        <v>23.45954913679252</v>
+        <v>2.076787256245285</v>
       </c>
       <c r="H18">
-        <v>24.20038263983864</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>19.87162931777242</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.940595929840611</v>
       </c>
       <c r="K18">
-        <v>16.94375074139714</v>
+        <v>18.18402112203913</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.96998636543762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.75250981999108</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.57539963161069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.2438046289975</v>
+        <v>21.05971546124543</v>
       </c>
       <c r="C19">
-        <v>14.48642662278294</v>
+        <v>13.27923666549457</v>
       </c>
       <c r="D19">
-        <v>3.124557165018213</v>
+        <v>3.57220383514401</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.96501109340241</v>
+        <v>44.59141746286732</v>
       </c>
       <c r="G19">
-        <v>23.3628530712082</v>
+        <v>2.07766522987392</v>
       </c>
       <c r="H19">
-        <v>24.11983700420551</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>19.82313056247621</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.935888711750583</v>
       </c>
       <c r="K19">
-        <v>16.8759571083061</v>
+        <v>18.10052916191481</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.76696513239838</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.67993137233488</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.48398415659543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.58616383036687</v>
+        <v>21.50235377589687</v>
       </c>
       <c r="C20">
-        <v>14.76300450787884</v>
+        <v>13.55369848149096</v>
       </c>
       <c r="D20">
-        <v>3.093085051065629</v>
+        <v>3.592499261755063</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.50968958088761</v>
+        <v>45.19825385675321</v>
       </c>
       <c r="G20">
-        <v>23.79772545927751</v>
+        <v>2.073718363787487</v>
       </c>
       <c r="H20">
-        <v>24.48291662304205</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>20.04269801148908</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.95736172027949</v>
       </c>
       <c r="K20">
-        <v>17.17918448482256</v>
+        <v>18.47423544388312</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.68057080307826</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16.00479115795249</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>32.89597930299632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.69777918647761</v>
+        <v>22.94879675757642</v>
       </c>
       <c r="C21">
-        <v>15.6641069915466</v>
+        <v>14.451103330889</v>
       </c>
       <c r="D21">
-        <v>2.983461317811383</v>
+        <v>3.66183225562252</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.33958313520596</v>
+        <v>47.24480467978002</v>
       </c>
       <c r="G21">
-        <v>25.25532807121568</v>
+        <v>2.060512857938867</v>
       </c>
       <c r="H21">
-        <v>25.71455648142057</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>20.80466698853897</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.034748873338359</v>
       </c>
       <c r="K21">
-        <v>18.16562467073365</v>
+        <v>19.69533275738066</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.76333584462215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>17.06630562157173</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>34.2912335877955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.39551088980355</v>
+        <v>23.86490496458156</v>
       </c>
       <c r="C22">
-        <v>16.23232712570621</v>
+        <v>15.01996825320327</v>
       </c>
       <c r="D22">
-        <v>2.908117151049484</v>
+        <v>3.707954387694792</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.53744379170236</v>
+        <v>48.58854515879681</v>
       </c>
       <c r="G22">
-        <v>26.20732644343906</v>
+        <v>2.051902072180555</v>
       </c>
       <c r="H22">
-        <v>26.52986512440087</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>21.3224872052136</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.089443465797089</v>
       </c>
       <c r="K22">
-        <v>18.78620675836045</v>
+        <v>20.46869084758541</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.80758398679539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17.73860167063444</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>35.2117842476379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.02575258639753</v>
+        <v>23.37855659733654</v>
       </c>
       <c r="C23">
-        <v>15.93093434219831</v>
+        <v>14.71791384758501</v>
       </c>
       <c r="D23">
-        <v>2.948728295565111</v>
+        <v>3.683266640458599</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.89778058355732</v>
+        <v>47.8707511930204</v>
       </c>
       <c r="G23">
-        <v>25.69912598442621</v>
+        <v>2.056497471579514</v>
       </c>
       <c r="H23">
-        <v>26.09364118979729</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>21.04416970576366</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.059860924030606</v>
       </c>
       <c r="K23">
-        <v>18.45719960471232</v>
+        <v>20.05812620969882</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.71234242371065</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17.38168967017563</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>34.71963516837496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.56750880785264</v>
+        <v>21.47820231531125</v>
       </c>
       <c r="C24">
-        <v>14.74792287364834</v>
+        <v>13.53872139490873</v>
       </c>
       <c r="D24">
-        <v>3.094826193666159</v>
+        <v>3.591380315074864</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.47978285591958</v>
+        <v>45.16490110768398</v>
       </c>
       <c r="G24">
-        <v>23.77386146937389</v>
+        <v>2.0739348468133</v>
       </c>
       <c r="H24">
-        <v>24.46293697139688</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>20.03055293858208</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.956163323580038</v>
       </c>
       <c r="K24">
-        <v>17.16265454744812</v>
+        <v>18.45384554253683</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.6303925680017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.98706626488363</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>32.87331387670018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.87052897445823</v>
+        <v>19.29568833711712</v>
       </c>
       <c r="C25">
-        <v>13.38108418014454</v>
+        <v>12.18600892145219</v>
       </c>
       <c r="D25">
-        <v>3.241283214407795</v>
+        <v>3.496032741663728</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.86891834179838</v>
+        <v>42.27074751878907</v>
       </c>
       <c r="G25">
-        <v>21.6835120477544</v>
+        <v>2.092962524175224</v>
       </c>
       <c r="H25">
-        <v>22.73964989748654</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>19.01211084025315</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.860657251866997</v>
       </c>
       <c r="K25">
-        <v>15.66257467234252</v>
+        <v>16.61096564143108</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.23916686197843</v>
+        <v>14.56114708427919</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.91666857217146</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.56735602440147</v>
+        <v>21.19113562122095</v>
       </c>
       <c r="C2">
-        <v>11.11549228584471</v>
+        <v>13.10889853617032</v>
       </c>
       <c r="D2">
-        <v>3.429421656711423</v>
+        <v>5.258594320197578</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.16198535233195</v>
+        <v>21.83785797843613</v>
       </c>
       <c r="G2">
-        <v>2.107291357456919</v>
+        <v>2.098345077197135</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14.8643498746982</v>
       </c>
       <c r="J2">
-        <v>6.803040095391347</v>
+        <v>6.285687438413095</v>
       </c>
       <c r="K2">
-        <v>15.15092518005609</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.283282770160284</v>
       </c>
       <c r="M2">
-        <v>13.66355441680213</v>
+        <v>13.08415470868836</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.50559264359961</v>
+        <v>16.12304490800762</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.31719830806831</v>
+        <v>19.7709178319531</v>
       </c>
       <c r="C3">
-        <v>10.34128138664802</v>
+        <v>12.47198346282591</v>
       </c>
       <c r="D3">
-        <v>3.386719483502879</v>
+        <v>5.210949667975441</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.74934192637222</v>
+        <v>21.79048512519212</v>
       </c>
       <c r="G3">
-        <v>2.117257226155701</v>
+        <v>2.103775628064151</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.188242676517</v>
       </c>
       <c r="J3">
-        <v>6.771293176466401</v>
+        <v>6.345787049766499</v>
       </c>
       <c r="K3">
-        <v>14.09423855430049</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.17332123722619</v>
       </c>
       <c r="M3">
-        <v>13.04445897878818</v>
+        <v>12.46685249988692</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.56879872647654</v>
+        <v>16.17621462742197</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.50978437622214</v>
+        <v>18.84663076858076</v>
       </c>
       <c r="C4">
-        <v>9.841220591391313</v>
+        <v>12.06402464241213</v>
       </c>
       <c r="D4">
-        <v>3.361773996743611</v>
+        <v>5.183047645071408</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.89149831012734</v>
+        <v>21.7847448601455</v>
       </c>
       <c r="G4">
-        <v>2.123518576792291</v>
+        <v>2.107214248989141</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.39946228796994</v>
       </c>
       <c r="J4">
-        <v>6.755206258602364</v>
+        <v>6.383846499004796</v>
       </c>
       <c r="K4">
-        <v>13.41141682703381</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.107403745876993</v>
       </c>
       <c r="M4">
-        <v>12.66005922938871</v>
+        <v>12.07476701210827</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.00385673794367</v>
+        <v>16.22622437889675</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.17062335263254</v>
+        <v>18.45675761576313</v>
       </c>
       <c r="C5">
-        <v>9.631141498880215</v>
+        <v>11.89365394544923</v>
       </c>
       <c r="D5">
-        <v>3.351939556828526</v>
+        <v>5.172021039562909</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>37.54457298582541</v>
+        <v>21.78805740283805</v>
       </c>
       <c r="G5">
-        <v>2.12610813213624</v>
+        <v>2.108642342206066</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.48852559440572</v>
       </c>
       <c r="J5">
-        <v>6.749479203341295</v>
+        <v>6.399652357645961</v>
       </c>
       <c r="K5">
-        <v>13.12448968560848</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.08096434252139</v>
       </c>
       <c r="M5">
-        <v>12.50253370247287</v>
+        <v>11.91188693403472</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.77633651047755</v>
+        <v>16.25077461367594</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.11369054317942</v>
+        <v>18.39121891333141</v>
       </c>
       <c r="C6">
-        <v>9.595874943738272</v>
+        <v>11.86511900956256</v>
       </c>
       <c r="D6">
-        <v>3.350326859930346</v>
+        <v>5.170210938498951</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.48713465596114</v>
+        <v>21.78894225875302</v>
       </c>
       <c r="G6">
-        <v>2.126540483336672</v>
+        <v>2.108881113781718</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.50349193069762</v>
       </c>
       <c r="J6">
-        <v>6.748577464575191</v>
+        <v>6.40229495225903</v>
       </c>
       <c r="K6">
-        <v>13.07631853715285</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.076600201843713</v>
       </c>
       <c r="M6">
-        <v>12.47632991417591</v>
+        <v>11.88465936929415</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.73872366852855</v>
+        <v>16.25509739351701</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.50525151498347</v>
+        <v>18.84142642431564</v>
       </c>
       <c r="C7">
-        <v>9.838413017564811</v>
+        <v>12.0617434817454</v>
       </c>
       <c r="D7">
-        <v>3.361640011589654</v>
+        <v>5.182897540203913</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.88680844873583</v>
+        <v>21.78476694514432</v>
       </c>
       <c r="G7">
-        <v>2.123553343731618</v>
+        <v>2.107233399335836</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.400651464871</v>
       </c>
       <c r="J7">
-        <v>6.755125703416584</v>
+        <v>6.384058455875234</v>
       </c>
       <c r="K7">
-        <v>13.40758249202451</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.10704543762426</v>
       </c>
       <c r="M7">
-        <v>12.65793806482312</v>
+        <v>12.07258265223847</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.00077722732626</v>
+        <v>16.2265388411291</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.14448740070396</v>
+        <v>20.71224673086176</v>
       </c>
       <c r="C8">
-        <v>10.85361248834905</v>
+        <v>12.89286229095246</v>
       </c>
       <c r="D8">
-        <v>3.41444004173808</v>
+        <v>5.241888195359388</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.67307254262658</v>
+        <v>21.81654885714143</v>
       </c>
       <c r="G8">
-        <v>2.110699457079421</v>
+        <v>2.100196275297435</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14.97339152489548</v>
       </c>
       <c r="J8">
-        <v>6.79136984864927</v>
+        <v>6.306172578996856</v>
       </c>
       <c r="K8">
-        <v>14.79356490428412</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.245048424061487</v>
       </c>
       <c r="M8">
-        <v>13.45108378600114</v>
+        <v>12.87411939903771</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.18052491820213</v>
+        <v>16.13765621110541</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.04927163744</v>
+        <v>23.96967562969544</v>
       </c>
       <c r="C9">
-        <v>12.65293177601018</v>
+        <v>14.38442757223258</v>
       </c>
       <c r="D9">
-        <v>3.527617977560743</v>
+        <v>5.368118657847237</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.24241355343255</v>
+        <v>22.07345393787083</v>
       </c>
       <c r="G9">
-        <v>2.086511582306843</v>
+        <v>2.087194223607772</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14.23946937361682</v>
       </c>
       <c r="J9">
-        <v>6.89076877740082</v>
+        <v>6.162384424751028</v>
       </c>
       <c r="K9">
-        <v>17.24735801618391</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.527459186433784</v>
       </c>
       <c r="M9">
-        <v>14.96573243119665</v>
+        <v>14.33577303785414</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.57122917201179</v>
+        <v>16.10988666462343</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.00407250627399</v>
+        <v>26.1171199727282</v>
       </c>
       <c r="C10">
-        <v>13.86487915587469</v>
+        <v>15.39174520173464</v>
       </c>
       <c r="D10">
-        <v>3.616038966842435</v>
+        <v>5.46704378643931</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>45.89731909738183</v>
+        <v>22.39280798101343</v>
       </c>
       <c r="G10">
-        <v>2.069191505318219</v>
+        <v>2.078084553353452</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.77318511766614</v>
       </c>
       <c r="J10">
-        <v>6.982954794293756</v>
+        <v>6.061842178571937</v>
       </c>
       <c r="K10">
-        <v>18.8978022662147</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.740939832413317</v>
       </c>
       <c r="M10">
-        <v>16.37299946357749</v>
+        <v>15.33555695459423</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.37159773292088</v>
+        <v>16.19072374244003</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.85679769106886</v>
+        <v>27.04177006797647</v>
       </c>
       <c r="C11">
-        <v>14.39399838571975</v>
+        <v>15.8302216648042</v>
       </c>
       <c r="D11">
-        <v>3.657291586378593</v>
+        <v>5.513335235999998</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.11184362866812</v>
+        <v>22.56876485214962</v>
       </c>
       <c r="G11">
-        <v>2.06136693505506</v>
+        <v>2.074026275381091</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.57943599692068</v>
       </c>
       <c r="J11">
-        <v>7.02949885430977</v>
+        <v>6.017128143727145</v>
       </c>
       <c r="K11">
-        <v>19.61766895383726</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.839116942074139</v>
       </c>
       <c r="M11">
-        <v>16.99879088515966</v>
+        <v>15.77328047342678</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.20032993922336</v>
+        <v>16.25198242210325</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.174671716365</v>
+        <v>27.38449056301721</v>
       </c>
       <c r="C12">
-        <v>14.59132357065204</v>
+        <v>15.9933918471154</v>
       </c>
       <c r="D12">
-        <v>3.673052378759746</v>
+        <v>5.531045352239465</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>47.57280468644624</v>
+        <v>22.63997826089878</v>
       </c>
       <c r="G12">
-        <v>2.058407719002145</v>
+        <v>2.072500943264432</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.50895798515669</v>
       </c>
       <c r="J12">
-        <v>7.047826836837292</v>
+        <v>6.000336212978559</v>
       </c>
       <c r="K12">
-        <v>19.8860114198683</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.876427852277423</v>
       </c>
       <c r="M12">
-        <v>17.23206661030004</v>
+        <v>15.93651828179355</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>34.51562701186283</v>
+        <v>16.2788996968189</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.10643204464884</v>
+        <v>27.31100836833351</v>
       </c>
       <c r="C13">
-        <v>14.54895870445924</v>
+        <v>15.95837828614061</v>
       </c>
       <c r="D13">
-        <v>3.669651938577354</v>
+        <v>5.527223208227042</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>47.47347983271256</v>
+        <v>22.62443480406816</v>
       </c>
       <c r="G13">
-        <v>2.059044940832492</v>
+        <v>2.072828956287548</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.52400381011704</v>
       </c>
       <c r="J13">
-        <v>7.043847644482587</v>
+        <v>6.003946528128157</v>
       </c>
       <c r="K13">
-        <v>19.82840505436329</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.86838664584979</v>
       </c>
       <c r="M13">
-        <v>17.18198816847234</v>
+        <v>15.90147492926337</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.44765475950925</v>
+        <v>16.27293402980829</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.88304894523019</v>
+        <v>27.07011418053508</v>
       </c>
       <c r="C14">
-        <v>14.41029246035506</v>
+        <v>15.84370345016971</v>
       </c>
       <c r="D14">
-        <v>3.65858548935029</v>
+        <v>5.514788666997935</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>47.14974546836131</v>
+        <v>22.5745308555404</v>
       </c>
       <c r="G14">
-        <v>2.061123427781566</v>
+        <v>2.073900561187339</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.57357825349931</v>
       </c>
       <c r="J14">
-        <v>7.030992381394426</v>
+        <v>6.015743889930493</v>
       </c>
       <c r="K14">
-        <v>19.63982976309411</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.842183967553066</v>
       </c>
       <c r="M14">
-        <v>17.01805572689293</v>
+        <v>15.78676091990871</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.22623943687033</v>
+        <v>16.25412125062326</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.74557157262247</v>
+        <v>26.9215952701298</v>
       </c>
       <c r="C15">
-        <v>14.32496417021394</v>
+        <v>15.773087178031</v>
       </c>
       <c r="D15">
-        <v>3.651824876662219</v>
+        <v>5.507195521124986</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>46.9515887754294</v>
+        <v>22.54456483743657</v>
       </c>
       <c r="G15">
-        <v>2.062396924660285</v>
+        <v>2.07455841402151</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.60432842170336</v>
       </c>
       <c r="J15">
-        <v>7.023210933526297</v>
+        <v>6.022988177836031</v>
       </c>
       <c r="K15">
-        <v>19.52377381252182</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.826150880793681</v>
       </c>
       <c r="M15">
-        <v>16.91716597378228</v>
+        <v>15.71616572015665</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.09081135568614</v>
+        <v>16.24308813172413</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.94762802451499</v>
+        <v>26.05564819794261</v>
       </c>
       <c r="C16">
-        <v>13.82986582157235</v>
+        <v>15.36268929795399</v>
       </c>
       <c r="D16">
-        <v>3.613362953140152</v>
+        <v>5.464044061275129</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>45.81808775117629</v>
+        <v>22.38194104223821</v>
       </c>
       <c r="G16">
-        <v>2.069703619512548</v>
+        <v>2.078351422948674</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.78623726457308</v>
       </c>
       <c r="J16">
-        <v>6.980009107171477</v>
+        <v>6.064784358903216</v>
       </c>
       <c r="K16">
-        <v>18.85015089542122</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.734543427328557</v>
       </c>
       <c r="M16">
-        <v>16.33157570823858</v>
+        <v>15.30660125291313</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.31763905346331</v>
+        <v>16.18723019154426</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.44890844630233</v>
+        <v>25.5111004086538</v>
       </c>
       <c r="C17">
-        <v>13.52055561776651</v>
+        <v>15.10583767681279</v>
       </c>
       <c r="D17">
-        <v>3.590024893948647</v>
+        <v>5.437898848170556</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.12448399942848</v>
+        <v>22.29016027929878</v>
       </c>
       <c r="G17">
-        <v>2.074197248459358</v>
+        <v>2.080699666205638</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>13.90270412966751</v>
       </c>
       <c r="J17">
-        <v>6.954713905122106</v>
+        <v>6.090682268436569</v>
       </c>
       <c r="K17">
-        <v>18.42911409095919</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.678603318046806</v>
       </c>
       <c r="M17">
-        <v>15.96556728994781</v>
+        <v>15.05092182457111</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.8458510491994</v>
+        <v>16.15937779469602</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.15860602579286</v>
+        <v>25.19296916659378</v>
       </c>
       <c r="C18">
-        <v>13.34054885485181</v>
+        <v>14.95624473201046</v>
       </c>
       <c r="D18">
-        <v>3.576698811670818</v>
+        <v>5.422982514777678</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.72617164592926</v>
+        <v>22.24024891855013</v>
       </c>
       <c r="G18">
-        <v>2.076787256245285</v>
+        <v>2.082058441631482</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.97140469803692</v>
       </c>
       <c r="J18">
-        <v>6.940595929840611</v>
+        <v>6.1056747923275</v>
       </c>
       <c r="K18">
-        <v>18.18402112203913</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.646529266810935</v>
       </c>
       <c r="M18">
-        <v>15.75250981999108</v>
+        <v>14.90225641166256</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.57539963161069</v>
+        <v>16.14565093870489</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.05971546124543</v>
+        <v>25.08440747984742</v>
       </c>
       <c r="C19">
-        <v>13.27923666549457</v>
+        <v>14.90527702454271</v>
       </c>
       <c r="D19">
-        <v>3.57220383514401</v>
+        <v>5.417953156318027</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.59141746286732</v>
+        <v>22.22383876384657</v>
       </c>
       <c r="G19">
-        <v>2.07766522987392</v>
+        <v>2.082519921560181</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.99495245823055</v>
       </c>
       <c r="J19">
-        <v>6.935888711750583</v>
+        <v>6.110767819154163</v>
       </c>
       <c r="K19">
-        <v>18.10052916191481</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.635687546757156</v>
       </c>
       <c r="M19">
-        <v>15.67993137233488</v>
+        <v>14.85164729761342</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.48398415659543</v>
+        <v>16.14139095007796</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.50235377589687</v>
+        <v>25.56957721400846</v>
       </c>
       <c r="C20">
-        <v>13.55369848149096</v>
+        <v>15.13337259517182</v>
       </c>
       <c r="D20">
-        <v>3.592499261755063</v>
+        <v>5.440669491460583</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.19825385675321</v>
+        <v>22.29963130676003</v>
       </c>
       <c r="G20">
-        <v>2.073718363787487</v>
+        <v>2.080448856685756</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>13.89012714961647</v>
       </c>
       <c r="J20">
-        <v>6.95736172027949</v>
+        <v>6.087915428731599</v>
       </c>
       <c r="K20">
-        <v>18.47423544388312</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.684547908375013</v>
       </c>
       <c r="M20">
-        <v>16.00479115795249</v>
+        <v>15.07830598748804</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.89597930299632</v>
+        <v>16.16210394272337</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.94879675757642</v>
+        <v>27.1410714363696</v>
       </c>
       <c r="C21">
-        <v>14.451103330889</v>
+        <v>15.8774643377742</v>
       </c>
       <c r="D21">
-        <v>3.66183225562252</v>
+        <v>5.518436131453127</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>47.24480467978002</v>
+        <v>22.58906319819484</v>
       </c>
       <c r="G21">
-        <v>2.060512857938867</v>
+        <v>2.073585501437881</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.5589364404219</v>
       </c>
       <c r="J21">
-        <v>7.034748873338359</v>
+        <v>6.012274967137856</v>
       </c>
       <c r="K21">
-        <v>19.69533275738066</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.849876859088551</v>
       </c>
       <c r="M21">
-        <v>17.06630562157173</v>
+        <v>15.82052397262281</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.2912335877955</v>
+        <v>16.25954450533405</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.86490496458156</v>
+        <v>28.12490062079017</v>
       </c>
       <c r="C22">
-        <v>15.01996825320327</v>
+        <v>16.34702917047427</v>
       </c>
       <c r="D22">
-        <v>3.707954387694792</v>
+        <v>5.570311390284042</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.58854515879681</v>
+        <v>22.80500298657831</v>
       </c>
       <c r="G22">
-        <v>2.051902072180555</v>
+        <v>2.069166186156491</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.35947187241762</v>
       </c>
       <c r="J22">
-        <v>7.089443465797089</v>
+        <v>5.963653923616913</v>
       </c>
       <c r="K22">
-        <v>20.46869084758541</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.958698201913318</v>
       </c>
       <c r="M22">
-        <v>17.73860167063444</v>
+        <v>16.29090842793068</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.2117842476379</v>
+        <v>16.34499812474248</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.37855659733654</v>
+        <v>27.60373899171207</v>
       </c>
       <c r="C23">
-        <v>14.71791384758501</v>
+        <v>16.09795242031187</v>
       </c>
       <c r="D23">
-        <v>3.683266640458599</v>
+        <v>5.542530060061949</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>47.8707511930204</v>
+        <v>22.68724863441964</v>
       </c>
       <c r="G23">
-        <v>2.056497471579514</v>
+        <v>2.071519100200637</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.46428457324207</v>
       </c>
       <c r="J23">
-        <v>7.059860924030606</v>
+        <v>5.989531723167666</v>
       </c>
       <c r="K23">
-        <v>20.05812620969882</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.900553916748855</v>
       </c>
       <c r="M23">
-        <v>17.38168967017563</v>
+        <v>16.04121661605732</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>34.71963516837496</v>
+        <v>16.29733375116331</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.47820231531125</v>
+        <v>25.54315562839316</v>
       </c>
       <c r="C24">
-        <v>13.53872139490873</v>
+        <v>15.12093005373813</v>
       </c>
       <c r="D24">
-        <v>3.591380315074864</v>
+        <v>5.439416525369315</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.16490110768398</v>
+        <v>22.29534057680342</v>
       </c>
       <c r="G24">
-        <v>2.0739348468133</v>
+        <v>2.080562220383118</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>13.89580779415986</v>
       </c>
       <c r="J24">
-        <v>6.956163323580038</v>
+        <v>6.089165994162295</v>
       </c>
       <c r="K24">
-        <v>18.45384554253683</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.68186008764863</v>
       </c>
       <c r="M24">
-        <v>15.98706626488363</v>
+        <v>15.06593081015586</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.87331387670018</v>
+        <v>16.16086434641435</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.29568833711712</v>
+        <v>23.13197993726785</v>
       </c>
       <c r="C25">
-        <v>12.18600892145219</v>
+        <v>13.99622876245169</v>
       </c>
       <c r="D25">
-        <v>3.496032741663728</v>
+        <v>5.33286533115117</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.27074751878907</v>
+        <v>21.98184199326809</v>
       </c>
       <c r="G25">
-        <v>2.092962524175224</v>
+        <v>2.090630548675738</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14.42598089141933</v>
       </c>
       <c r="J25">
-        <v>6.860657251866997</v>
+        <v>6.200360897505278</v>
       </c>
       <c r="K25">
-        <v>16.61096564143108</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.449921984781755</v>
       </c>
       <c r="M25">
-        <v>14.56114708427919</v>
+        <v>13.95295663957482</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.91666857217146</v>
+        <v>16.10047646002955</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.19113562122095</v>
+        <v>16.74669534304606</v>
       </c>
       <c r="C2">
-        <v>13.10889853617032</v>
+        <v>9.570545766966038</v>
       </c>
       <c r="D2">
-        <v>5.258594320197578</v>
+        <v>8.812900301709805</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.83785797843613</v>
+        <v>34.32704813639048</v>
       </c>
       <c r="G2">
-        <v>2.098345077197135</v>
+        <v>3.667690417862037</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.8643498746982</v>
+        <v>25.55654061914504</v>
       </c>
       <c r="J2">
-        <v>6.285687438413095</v>
+        <v>10.45043794749669</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.283282770160284</v>
+        <v>11.84404138942265</v>
       </c>
       <c r="M2">
-        <v>13.08415470868836</v>
+        <v>16.61903971452296</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.12304490800762</v>
+        <v>26.07417623181908</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7709178319531</v>
+        <v>16.23557823278766</v>
       </c>
       <c r="C3">
-        <v>12.47198346282591</v>
+        <v>9.280665729017587</v>
       </c>
       <c r="D3">
-        <v>5.210949667975441</v>
+        <v>8.818693701607035</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.79048512519212</v>
+        <v>34.45886348785208</v>
       </c>
       <c r="G3">
-        <v>2.103775628064151</v>
+        <v>3.66976762776137</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.188242676517</v>
+        <v>25.702039565122</v>
       </c>
       <c r="J3">
-        <v>6.345787049766499</v>
+        <v>10.47237552372833</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.17332123722619</v>
+        <v>11.84538184591604</v>
       </c>
       <c r="M3">
-        <v>12.46685249988692</v>
+        <v>16.50074004854826</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.17621462742197</v>
+        <v>26.18665390332444</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.84663076858076</v>
+        <v>15.91445091172337</v>
       </c>
       <c r="C4">
-        <v>12.06402464241213</v>
+        <v>9.096975874180117</v>
       </c>
       <c r="D4">
-        <v>5.183047645071408</v>
+        <v>8.823065909620675</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.7847448601455</v>
+        <v>34.54830920163663</v>
       </c>
       <c r="G4">
-        <v>2.107214248989141</v>
+        <v>3.671111111159346</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.39946228796994</v>
+        <v>25.7967410514179</v>
       </c>
       <c r="J4">
-        <v>6.383846499004796</v>
+        <v>10.48655737046804</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.107403745876993</v>
+        <v>11.84746529509748</v>
       </c>
       <c r="M4">
-        <v>12.07476701210827</v>
+        <v>16.42926177312293</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.22622437889675</v>
+        <v>26.26190201513068</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.45675761576313</v>
+        <v>15.78193647569507</v>
       </c>
       <c r="C5">
-        <v>11.89365394544923</v>
+        <v>9.020766792642592</v>
       </c>
       <c r="D5">
-        <v>5.172021039562909</v>
+        <v>8.825053089633277</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.78805740283805</v>
+        <v>34.5868934610488</v>
       </c>
       <c r="G5">
-        <v>2.108642342206066</v>
+        <v>3.671675761637843</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.48852559440572</v>
+        <v>25.83668228450528</v>
       </c>
       <c r="J5">
-        <v>6.399652357645961</v>
+        <v>10.49251618043143</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.08096434252139</v>
+        <v>11.84863227825399</v>
       </c>
       <c r="M5">
-        <v>11.91188693403472</v>
+        <v>16.40044623818728</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.25077461367594</v>
+        <v>26.29411836295638</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.39121891333141</v>
+        <v>15.75983837796769</v>
       </c>
       <c r="C6">
-        <v>11.86511900956256</v>
+        <v>9.008033029663236</v>
       </c>
       <c r="D6">
-        <v>5.170210938498951</v>
+        <v>8.825395484099756</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.78894225875302</v>
+        <v>34.59342909244285</v>
       </c>
       <c r="G6">
-        <v>2.108881113781718</v>
+        <v>3.671770560033802</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.50349193069762</v>
+        <v>25.84339602925295</v>
       </c>
       <c r="J6">
-        <v>6.40229495225903</v>
+        <v>10.49351649889046</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.076600201843713</v>
+        <v>11.84884528753766</v>
       </c>
       <c r="M6">
-        <v>11.88465936929415</v>
+        <v>16.39568092116727</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.25509739351701</v>
+        <v>26.29956150547707</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.84142642431564</v>
+        <v>15.91267021411448</v>
       </c>
       <c r="C7">
-        <v>12.0617434817454</v>
+        <v>9.095953463275203</v>
       </c>
       <c r="D7">
-        <v>5.182897540203913</v>
+        <v>8.823091876802735</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.78476694514432</v>
+        <v>34.54882092793341</v>
       </c>
       <c r="G7">
-        <v>2.107233399335836</v>
+        <v>3.671118656641756</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.400651464871</v>
+        <v>25.79727424744836</v>
       </c>
       <c r="J7">
-        <v>6.384058455875234</v>
+        <v>10.48663700519399</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.10704543762426</v>
+        <v>11.84747974472638</v>
       </c>
       <c r="M7">
-        <v>12.07258265223847</v>
+        <v>16.42887186403903</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.2265388411291</v>
+        <v>26.26233021618858</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.71224673086176</v>
+        <v>16.57208254107206</v>
       </c>
       <c r="C8">
-        <v>12.89286229095246</v>
+        <v>9.47182443050357</v>
       </c>
       <c r="D8">
-        <v>5.241888195359388</v>
+        <v>8.814729023267514</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.81654885714143</v>
+        <v>34.37072836369916</v>
       </c>
       <c r="G8">
-        <v>2.100196275297435</v>
+        <v>3.668392544736989</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.97339152489548</v>
+        <v>25.60559562747599</v>
       </c>
       <c r="J8">
-        <v>6.306172578996856</v>
+        <v>10.45785455134427</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.245048424061487</v>
+        <v>11.84424261235128</v>
       </c>
       <c r="M8">
-        <v>12.87411939903771</v>
+        <v>16.57802246641199</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.13765621110541</v>
+        <v>26.11167247334984</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.96967562969544</v>
+        <v>17.7999577297981</v>
       </c>
       <c r="C9">
-        <v>14.38442757223258</v>
+        <v>10.16050416138412</v>
       </c>
       <c r="D9">
-        <v>5.368118657847237</v>
+        <v>8.804773302631066</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.07345393787083</v>
+        <v>34.08926224068957</v>
       </c>
       <c r="G9">
-        <v>2.087194223607772</v>
+        <v>3.663584281851104</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.23946937361682</v>
+        <v>25.27225001739712</v>
       </c>
       <c r="J9">
-        <v>6.162384424751028</v>
+        <v>10.40703798346343</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.527459186433784</v>
+        <v>11.84784897430152</v>
       </c>
       <c r="M9">
-        <v>14.33577303785414</v>
+        <v>16.87874618471635</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.10988666462343</v>
+        <v>25.86547311283117</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.1171199727282</v>
+        <v>18.65353284127874</v>
       </c>
       <c r="C10">
-        <v>15.39174520173464</v>
+        <v>10.63322195483403</v>
       </c>
       <c r="D10">
-        <v>5.46704378643931</v>
+        <v>8.8013557316368</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.39280798101343</v>
+        <v>33.9241102485711</v>
       </c>
       <c r="G10">
-        <v>2.078084553353452</v>
+        <v>3.660375968918055</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.77318511766614</v>
+        <v>25.05323054692492</v>
       </c>
       <c r="J10">
-        <v>6.061842178571937</v>
+        <v>10.37309849228092</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.740939832413317</v>
+        <v>11.8565025710521</v>
       </c>
       <c r="M10">
-        <v>15.33555695459423</v>
+        <v>17.10341764703665</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.19072374244003</v>
+        <v>25.7148165718911</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.04177006797647</v>
+        <v>19.02973062302632</v>
       </c>
       <c r="C11">
-        <v>15.8302216648042</v>
+        <v>10.84038871752959</v>
       </c>
       <c r="D11">
-        <v>5.513335235999998</v>
+        <v>8.800640058917329</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.56876485214962</v>
+        <v>33.85808578905639</v>
       </c>
       <c r="G11">
-        <v>2.074026275381091</v>
+        <v>3.65898611538062</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.57943599692068</v>
+        <v>24.95920736216943</v>
       </c>
       <c r="J11">
-        <v>6.017128143727145</v>
+        <v>10.35838856768797</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.839116942074139</v>
+        <v>11.86172793799511</v>
       </c>
       <c r="M11">
-        <v>15.77328047342678</v>
+        <v>17.20615626591039</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.25198242210325</v>
+        <v>25.65288612556399</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.38449056301721</v>
+        <v>19.17033387290493</v>
       </c>
       <c r="C12">
-        <v>15.9933918471154</v>
+        <v>10.91765744431055</v>
       </c>
       <c r="D12">
-        <v>5.531045352239465</v>
+        <v>8.800489048301234</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.63997826089878</v>
+        <v>33.83439824451109</v>
       </c>
       <c r="G12">
-        <v>2.072500943264432</v>
+        <v>3.658469770448328</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.50895798515669</v>
+        <v>24.92440971318452</v>
       </c>
       <c r="J12">
-        <v>6.000336212978559</v>
+        <v>10.3529226313584</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.876427852277423</v>
+        <v>11.86389054903701</v>
       </c>
       <c r="M12">
-        <v>15.93651828179355</v>
+        <v>17.24511374754463</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.2788996968189</v>
+        <v>25.63038791843996</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.31100836833351</v>
+        <v>19.14013663447351</v>
       </c>
       <c r="C13">
-        <v>15.95837828614061</v>
+        <v>10.90106947228777</v>
       </c>
       <c r="D13">
-        <v>5.527223208227042</v>
+        <v>8.800516244735231</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.62443480406816</v>
+        <v>33.83944123677488</v>
       </c>
       <c r="G13">
-        <v>2.072828956287548</v>
+        <v>3.658580532269159</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.52400381011704</v>
+        <v>24.93186811868797</v>
       </c>
       <c r="J13">
-        <v>6.003946528128157</v>
+        <v>10.35409518327985</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.86838664584979</v>
+        <v>11.86341663792606</v>
       </c>
       <c r="M13">
-        <v>15.90147492926337</v>
+        <v>17.23672160354556</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.27293402980829</v>
+        <v>25.63519084148687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.07011418053508</v>
+        <v>19.0413359223137</v>
       </c>
       <c r="C14">
-        <v>15.84370345016971</v>
+        <v>10.84676958572232</v>
       </c>
       <c r="D14">
-        <v>5.514788666997935</v>
+        <v>8.800625234022718</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.5745308555404</v>
+        <v>33.85611062662781</v>
       </c>
       <c r="G14">
-        <v>2.073900561187339</v>
+        <v>3.658943435992144</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.57357825349931</v>
+        <v>24.9563283658948</v>
       </c>
       <c r="J14">
-        <v>6.015743889930493</v>
+        <v>10.35793679237556</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.842183967553066</v>
+        <v>11.86190218069228</v>
       </c>
       <c r="M14">
-        <v>15.78676091990871</v>
+        <v>17.20936040611713</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.25412125062326</v>
+        <v>25.6510160528836</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.9215952701298</v>
+        <v>18.98057289753735</v>
       </c>
       <c r="C15">
-        <v>15.773087178031</v>
+        <v>10.81335421477331</v>
       </c>
       <c r="D15">
-        <v>5.507195521124986</v>
+        <v>8.800707600875892</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.54456483743657</v>
+        <v>33.86649244797167</v>
       </c>
       <c r="G15">
-        <v>2.07455841402151</v>
+        <v>3.659167020944745</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.60432842170336</v>
+        <v>24.97141606200146</v>
       </c>
       <c r="J15">
-        <v>6.022988177836031</v>
+        <v>10.36030346966027</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.826150880793681</v>
+        <v>11.86099843392327</v>
       </c>
       <c r="M15">
-        <v>15.71616572015665</v>
+        <v>17.19260701268447</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.24308813172413</v>
+        <v>25.66083374039284</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05564819794261</v>
+        <v>18.62869387179595</v>
       </c>
       <c r="C16">
-        <v>15.36268929795399</v>
+        <v>10.61952039016885</v>
       </c>
       <c r="D16">
-        <v>5.464044061275129</v>
+        <v>8.801419330523386</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.38194104223821</v>
+        <v>33.92860876070097</v>
       </c>
       <c r="G16">
-        <v>2.078351422948674</v>
+        <v>3.660468195896369</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.78623726457308</v>
+        <v>25.05948808292175</v>
       </c>
       <c r="J16">
-        <v>6.064784358903216</v>
+        <v>10.37407445488764</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.734543427328557</v>
+        <v>11.85618689278521</v>
       </c>
       <c r="M16">
-        <v>15.30660125291313</v>
+        <v>17.09671211746148</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.18723019154426</v>
+        <v>25.7189970929487</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.5111004086538</v>
+        <v>18.4096430786638</v>
       </c>
       <c r="C17">
-        <v>15.10583767681279</v>
+        <v>10.49855643472638</v>
       </c>
       <c r="D17">
-        <v>5.437898848170556</v>
+        <v>8.802070388254526</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.29016027929878</v>
+        <v>33.96905074427385</v>
       </c>
       <c r="G17">
-        <v>2.080699666205638</v>
+        <v>3.661284221699868</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.90270412966751</v>
+        <v>25.11495434924682</v>
       </c>
       <c r="J17">
-        <v>6.090682268436569</v>
+        <v>10.38270895995884</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.678603318046806</v>
+        <v>11.85356425346605</v>
       </c>
       <c r="M17">
-        <v>15.05092182457111</v>
+        <v>17.03800333275372</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.15937779469602</v>
+        <v>25.75637263239559</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.19296916659378</v>
+        <v>18.28251820226273</v>
       </c>
       <c r="C18">
-        <v>14.95624473201046</v>
+        <v>10.42824247016253</v>
       </c>
       <c r="D18">
-        <v>5.422982514777678</v>
+        <v>8.80252387023385</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.24024891855013</v>
+        <v>33.99316851282956</v>
       </c>
       <c r="G18">
-        <v>2.082058441631482</v>
+        <v>3.66176013443887</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.97140469803692</v>
+        <v>25.14738508854926</v>
       </c>
       <c r="J18">
-        <v>6.1056747923275</v>
+        <v>10.38774397452395</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.646529266810935</v>
+        <v>11.85217718041953</v>
       </c>
       <c r="M18">
-        <v>14.90225641166256</v>
+        <v>17.00428735081974</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.14565093870489</v>
+        <v>25.77849142372595</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.08440747984742</v>
+        <v>18.23928508094291</v>
       </c>
       <c r="C19">
-        <v>14.90527702454271</v>
+        <v>10.40431006448422</v>
       </c>
       <c r="D19">
-        <v>5.417953156318027</v>
+        <v>8.802691000929217</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.22383876384657</v>
+        <v>34.00148133137047</v>
       </c>
       <c r="G19">
-        <v>2.082519921560181</v>
+        <v>3.661922397875085</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.99495245823055</v>
+        <v>25.15845626136849</v>
       </c>
       <c r="J19">
-        <v>6.110767819154163</v>
+        <v>10.38946055382391</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.635687546757156</v>
+        <v>11.85172843479051</v>
       </c>
       <c r="M19">
-        <v>14.85164729761342</v>
+        <v>16.99288132725629</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.14139095007796</v>
+        <v>25.78608706840403</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.56957721400846</v>
+        <v>18.43307950802142</v>
       </c>
       <c r="C20">
-        <v>15.13337259517182</v>
+        <v>10.51151007488251</v>
       </c>
       <c r="D20">
-        <v>5.440669491460583</v>
+        <v>8.801992909345062</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.29963130676003</v>
+        <v>33.96465693069915</v>
       </c>
       <c r="G20">
-        <v>2.080448856685756</v>
+        <v>3.661196676169347</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.89012714961647</v>
+        <v>25.10899522229736</v>
       </c>
       <c r="J20">
-        <v>6.087915428731599</v>
+        <v>10.38178269799194</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.684547908375013</v>
+        <v>11.85383088375056</v>
       </c>
       <c r="M20">
-        <v>15.07830598748804</v>
+        <v>17.04424780205112</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.16210394272337</v>
+        <v>25.75232960475845</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.1410714363696</v>
+        <v>19.07040727709229</v>
       </c>
       <c r="C21">
-        <v>15.8774643377742</v>
+        <v>10.86275118486519</v>
       </c>
       <c r="D21">
-        <v>5.518436131453127</v>
+        <v>8.800589969775324</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.58906319819484</v>
+        <v>33.8511787067645</v>
       </c>
       <c r="G21">
-        <v>2.073585501437881</v>
+        <v>3.658836572386118</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.5589364404219</v>
+        <v>24.94912189755004</v>
       </c>
       <c r="J21">
-        <v>6.012274967137856</v>
+        <v>10.3568055892928</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.849876859088551</v>
+        <v>11.86234203502812</v>
       </c>
       <c r="M21">
-        <v>15.82052397262281</v>
+        <v>17.21739581879288</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.25954450533405</v>
+        <v>25.64634189625536</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.12490062079017</v>
+        <v>19.47608255107175</v>
       </c>
       <c r="C22">
-        <v>16.34702917047427</v>
+        <v>11.08540608471197</v>
       </c>
       <c r="D22">
-        <v>5.570311390284042</v>
+        <v>8.800372195700756</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.80500298657831</v>
+        <v>33.78467824025021</v>
       </c>
       <c r="G22">
-        <v>2.069166186156491</v>
+        <v>3.657352154186762</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.35947187241762</v>
+        <v>24.84933877142337</v>
       </c>
       <c r="J22">
-        <v>5.963653923616913</v>
+        <v>10.3410898656688</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.958698201913318</v>
+        <v>11.86897562018373</v>
       </c>
       <c r="M22">
-        <v>16.29090842793068</v>
+        <v>17.33085341164186</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.34499812474248</v>
+        <v>25.58263232555674</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.60373899171207</v>
+        <v>19.26059410237652</v>
       </c>
       <c r="C23">
-        <v>16.09795242031187</v>
+        <v>10.96721706288887</v>
       </c>
       <c r="D23">
-        <v>5.542530060061949</v>
+        <v>8.800424676161263</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.68724863441964</v>
+        <v>33.81946782930871</v>
       </c>
       <c r="G23">
-        <v>2.071519100200637</v>
+        <v>3.658139121127475</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.46428457324207</v>
+        <v>24.90216445889192</v>
       </c>
       <c r="J23">
-        <v>5.989531723167666</v>
+        <v>10.34942214549398</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.900553916748855</v>
+        <v>11.86533764781176</v>
       </c>
       <c r="M23">
-        <v>16.04121661605732</v>
+        <v>17.27027993759666</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.29733375116331</v>
+        <v>25.61612536618838</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.54315562839316</v>
+        <v>18.42248759496351</v>
       </c>
       <c r="C24">
-        <v>15.12093005373813</v>
+        <v>10.50565612940271</v>
       </c>
       <c r="D24">
-        <v>5.439416525369315</v>
+        <v>8.802027690886632</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.29534057680342</v>
+        <v>33.96664067313659</v>
       </c>
       <c r="G24">
-        <v>2.080562220383118</v>
+        <v>3.661236234416097</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.89580779415986</v>
+        <v>25.11168765389308</v>
       </c>
       <c r="J24">
-        <v>6.089165994162295</v>
+        <v>10.38220124006927</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.68186008764863</v>
+        <v>11.85370996407082</v>
       </c>
       <c r="M24">
-        <v>15.06593081015586</v>
+        <v>17.04142456199396</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.16086434641435</v>
+        <v>25.75415549199552</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.13197993726785</v>
+        <v>17.47573002809403</v>
       </c>
       <c r="C25">
-        <v>13.99622876245169</v>
+        <v>9.979792256137932</v>
       </c>
       <c r="D25">
-        <v>5.33286533115117</v>
+        <v>8.806779884748037</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.98184199326809</v>
+        <v>34.15811634962577</v>
       </c>
       <c r="G25">
-        <v>2.090630548675738</v>
+        <v>3.664827843781863</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.42598089141933</v>
+        <v>25.35787969901158</v>
       </c>
       <c r="J25">
-        <v>6.200360897505278</v>
+        <v>10.42018648518033</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.449921984781755</v>
+        <v>11.84581403797063</v>
       </c>
       <c r="M25">
-        <v>13.95295663957482</v>
+        <v>16.7966427137085</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.10047646002955</v>
+        <v>25.9267834171541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.74669534304606</v>
+        <v>21.19113562122095</v>
       </c>
       <c r="C2">
-        <v>9.570545766966038</v>
+        <v>13.10889853617014</v>
       </c>
       <c r="D2">
-        <v>8.812900301709805</v>
+        <v>5.258594320197512</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.32704813639048</v>
+        <v>21.83785797843615</v>
       </c>
       <c r="G2">
-        <v>3.667690417862037</v>
+        <v>2.098345077197268</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.55654061914504</v>
+        <v>14.86434987469819</v>
       </c>
       <c r="J2">
-        <v>10.45043794749669</v>
+        <v>6.285687438413129</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.84404138942265</v>
+        <v>7.283282770160297</v>
       </c>
       <c r="M2">
-        <v>16.61903971452296</v>
+        <v>13.08415470868838</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.07417623181908</v>
+        <v>16.12304490800767</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.23557823278766</v>
+        <v>19.77091783195308</v>
       </c>
       <c r="C3">
-        <v>9.280665729017587</v>
+        <v>12.47198346282587</v>
       </c>
       <c r="D3">
-        <v>8.818693701607035</v>
+        <v>5.210949667975441</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.45886348785208</v>
+        <v>21.79048512519217</v>
       </c>
       <c r="G3">
-        <v>3.66976762776137</v>
+        <v>2.103775628064418</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.702039565122</v>
+        <v>15.18824267651702</v>
       </c>
       <c r="J3">
-        <v>10.47237552372833</v>
+        <v>6.345787049766531</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.84538184591604</v>
+        <v>7.173321237226257</v>
       </c>
       <c r="M3">
-        <v>16.50074004854826</v>
+        <v>12.46685249988695</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.18665390332444</v>
+        <v>16.17621462742202</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.91445091172337</v>
+        <v>18.84663076858076</v>
       </c>
       <c r="C4">
-        <v>9.096975874180117</v>
+        <v>12.064024642412</v>
       </c>
       <c r="D4">
-        <v>8.823065909620675</v>
+        <v>5.183047645071293</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.54830920163663</v>
+        <v>21.7847448601453</v>
       </c>
       <c r="G4">
-        <v>3.671111111159346</v>
+        <v>2.107214248989005</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.7967410514179</v>
+        <v>15.39946228796977</v>
       </c>
       <c r="J4">
-        <v>10.48655737046804</v>
+        <v>6.383846499004695</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.84746529509748</v>
+        <v>7.107403745876885</v>
       </c>
       <c r="M4">
-        <v>16.42926177312293</v>
+        <v>12.07476701210821</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.26190201513068</v>
+        <v>16.22622437889662</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.78193647569507</v>
+        <v>18.45675761576307</v>
       </c>
       <c r="C5">
-        <v>9.020766792642592</v>
+        <v>11.89365394544938</v>
       </c>
       <c r="D5">
-        <v>8.825053089633277</v>
+        <v>5.172021039562907</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.5868934610488</v>
+        <v>21.78805740283807</v>
       </c>
       <c r="G5">
-        <v>3.671675761637843</v>
+        <v>2.108642342206067</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.83668228450528</v>
+        <v>15.4885255944058</v>
       </c>
       <c r="J5">
-        <v>10.49251618043143</v>
+        <v>6.39965235764603</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.84863227825399</v>
+        <v>7.08096434252136</v>
       </c>
       <c r="M5">
-        <v>16.40044623818728</v>
+        <v>11.91188693403477</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.29411836295638</v>
+        <v>16.25077461367596</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.75983837796769</v>
+        <v>18.39121891333145</v>
       </c>
       <c r="C6">
-        <v>9.008033029663236</v>
+        <v>11.86511900956258</v>
       </c>
       <c r="D6">
-        <v>8.825395484099756</v>
+        <v>5.170210938498723</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.59342909244285</v>
+        <v>21.78894225875252</v>
       </c>
       <c r="G6">
-        <v>3.671770560033802</v>
+        <v>2.108881113781717</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.84339602925295</v>
+        <v>15.50349193069729</v>
       </c>
       <c r="J6">
-        <v>10.49351649889046</v>
+        <v>6.402294952258996</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.84884528753766</v>
+        <v>7.076600201843597</v>
       </c>
       <c r="M6">
-        <v>16.39568092116727</v>
+        <v>11.88465936929405</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.29956150547707</v>
+        <v>16.25509739351664</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.91267021411448</v>
+        <v>18.84142642431564</v>
       </c>
       <c r="C7">
-        <v>9.095953463275203</v>
+        <v>12.06174348174536</v>
       </c>
       <c r="D7">
-        <v>8.823091876802735</v>
+        <v>5.182897540204094</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.54882092793341</v>
+        <v>21.78476694514441</v>
       </c>
       <c r="G7">
-        <v>3.671118656641756</v>
+        <v>2.107233399335968</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.79727424744836</v>
+        <v>15.40065146487102</v>
       </c>
       <c r="J7">
-        <v>10.48663700519399</v>
+        <v>6.384058455875266</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.84747974472638</v>
+        <v>7.107045437624391</v>
       </c>
       <c r="M7">
-        <v>16.42887186403903</v>
+        <v>12.07258265223851</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.26233021618858</v>
+        <v>16.22653884112912</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.57208254107206</v>
+        <v>20.71224673086174</v>
       </c>
       <c r="C8">
-        <v>9.47182443050357</v>
+        <v>12.89286229095256</v>
       </c>
       <c r="D8">
-        <v>8.814729023267514</v>
+        <v>5.241888195359322</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.37072836369916</v>
+        <v>21.81654885714133</v>
       </c>
       <c r="G8">
-        <v>3.668392544736989</v>
+        <v>2.100196275297435</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.60559562747599</v>
+        <v>14.97339152489549</v>
       </c>
       <c r="J8">
-        <v>10.45785455134427</v>
+        <v>6.306172578996924</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.84424261235128</v>
+        <v>7.245048424061432</v>
       </c>
       <c r="M8">
-        <v>16.57802246641199</v>
+        <v>12.87411939903769</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.11167247334984</v>
+        <v>16.13765621110536</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.7999577297981</v>
+        <v>23.9696756296954</v>
       </c>
       <c r="C9">
-        <v>10.16050416138412</v>
+        <v>14.38442757223262</v>
       </c>
       <c r="D9">
-        <v>8.804773302631066</v>
+        <v>5.368118657847183</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.08926224068957</v>
+        <v>22.07345393787099</v>
       </c>
       <c r="G9">
-        <v>3.663584281851104</v>
+        <v>2.087194223607772</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.27225001739712</v>
+        <v>14.239469373617</v>
       </c>
       <c r="J9">
-        <v>10.40703798346343</v>
+        <v>6.162384424751028</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.84784897430152</v>
+        <v>7.527459186433793</v>
       </c>
       <c r="M9">
-        <v>16.87874618471635</v>
+        <v>14.33577303785417</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.86547311283117</v>
+        <v>16.10988666462358</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.65353284127874</v>
+        <v>26.11711997272823</v>
       </c>
       <c r="C10">
-        <v>10.63322195483403</v>
+        <v>15.3917452017346</v>
       </c>
       <c r="D10">
-        <v>8.8013557316368</v>
+        <v>5.467043786439326</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.9241102485711</v>
+        <v>22.39280798101343</v>
       </c>
       <c r="G10">
-        <v>3.660375968918055</v>
+        <v>2.078084553353856</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.05323054692492</v>
+        <v>13.77318511766607</v>
       </c>
       <c r="J10">
-        <v>10.37309849228092</v>
+        <v>6.061842178571903</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.8565025710521</v>
+        <v>7.740939832413354</v>
       </c>
       <c r="M10">
-        <v>17.10341764703665</v>
+        <v>15.33555695459422</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.7148165718911</v>
+        <v>16.19072374244001</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.02973062302632</v>
+        <v>27.04177006797648</v>
       </c>
       <c r="C11">
-        <v>10.84038871752959</v>
+        <v>15.83022166480423</v>
       </c>
       <c r="D11">
-        <v>8.800640058917329</v>
+        <v>5.513335236000101</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.85808578905639</v>
+        <v>22.56876485214973</v>
       </c>
       <c r="G11">
-        <v>3.65898611538062</v>
+        <v>2.074026275381091</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.95920736216943</v>
+        <v>13.57943599692076</v>
       </c>
       <c r="J11">
-        <v>10.35838856768797</v>
+        <v>6.017128143727079</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.86172793799511</v>
+        <v>7.839116942074119</v>
       </c>
       <c r="M11">
-        <v>17.20615626591039</v>
+        <v>15.77328047342679</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.65288612556399</v>
+        <v>16.25198242210329</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.17033387290493</v>
+        <v>27.38449056301722</v>
       </c>
       <c r="C12">
-        <v>10.91765744431055</v>
+        <v>15.99339184711531</v>
       </c>
       <c r="D12">
-        <v>8.800489048301234</v>
+        <v>5.53104535223929</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.83439824451109</v>
+        <v>22.63997826089876</v>
       </c>
       <c r="G12">
-        <v>3.658469770448328</v>
+        <v>2.072500943264568</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.92440971318452</v>
+        <v>13.50895798515671</v>
       </c>
       <c r="J12">
-        <v>10.3529226313584</v>
+        <v>6.000336212978559</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.86389054903701</v>
+        <v>7.876427852277396</v>
       </c>
       <c r="M12">
-        <v>17.24511374754463</v>
+        <v>15.93651828179352</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.63038791843996</v>
+        <v>16.27889969681893</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.14013663447351</v>
+        <v>27.31100836833355</v>
       </c>
       <c r="C13">
-        <v>10.90106947228777</v>
+        <v>15.95837828614041</v>
       </c>
       <c r="D13">
-        <v>8.800516244735231</v>
+        <v>5.527223208226968</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.83944123677488</v>
+        <v>22.62443480406819</v>
       </c>
       <c r="G13">
-        <v>3.658580532269159</v>
+        <v>2.072828956287415</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.93186811868797</v>
+        <v>13.52400381011707</v>
       </c>
       <c r="J13">
-        <v>10.35409518327985</v>
+        <v>6.003946528128225</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.86341663792606</v>
+        <v>7.868386645849836</v>
       </c>
       <c r="M13">
-        <v>17.23672160354556</v>
+        <v>15.90147492926336</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.63519084148687</v>
+        <v>16.27293402980833</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.0413359223137</v>
+        <v>27.07011418053511</v>
       </c>
       <c r="C14">
-        <v>10.84676958572232</v>
+        <v>15.84370345016949</v>
       </c>
       <c r="D14">
-        <v>8.800625234022718</v>
+        <v>5.514788666997735</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.85611062662781</v>
+        <v>22.57453085554047</v>
       </c>
       <c r="G14">
-        <v>3.658943435992144</v>
+        <v>2.073900561187073</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.9563283658948</v>
+        <v>13.5735782534994</v>
       </c>
       <c r="J14">
-        <v>10.35793679237556</v>
+        <v>6.015743889930594</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.86190218069228</v>
+        <v>7.842183967553121</v>
       </c>
       <c r="M14">
-        <v>17.20936040611713</v>
+        <v>15.7867609199087</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.6510160528836</v>
+        <v>16.2541212506234</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.98057289753735</v>
+        <v>26.92159527012986</v>
       </c>
       <c r="C15">
-        <v>10.81335421477331</v>
+        <v>15.77308717803081</v>
       </c>
       <c r="D15">
-        <v>8.800707600875892</v>
+        <v>5.507195521124837</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.86649244797167</v>
+        <v>22.54456483743642</v>
       </c>
       <c r="G15">
-        <v>3.659167020944745</v>
+        <v>2.074558414021241</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.97141606200146</v>
+        <v>13.60432842170319</v>
       </c>
       <c r="J15">
-        <v>10.36030346966027</v>
+        <v>6.022988177835996</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.86099843392327</v>
+        <v>7.826150880793656</v>
       </c>
       <c r="M15">
-        <v>17.19260701268447</v>
+        <v>15.71616572015663</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.66083374039284</v>
+        <v>16.24308813172405</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.62869387179595</v>
+        <v>26.05564819794266</v>
       </c>
       <c r="C16">
-        <v>10.61952039016885</v>
+        <v>15.36268929795393</v>
       </c>
       <c r="D16">
-        <v>8.801419330523386</v>
+        <v>5.464044061275124</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.92860876070097</v>
+        <v>22.38194104223801</v>
       </c>
       <c r="G16">
-        <v>3.660468195896369</v>
+        <v>2.078351422948807</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.05948808292175</v>
+        <v>13.7862372645729</v>
       </c>
       <c r="J16">
-        <v>10.37407445488764</v>
+        <v>6.064784358903214</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.85618689278521</v>
+        <v>7.734543427328551</v>
       </c>
       <c r="M16">
-        <v>17.09671211746148</v>
+        <v>15.30660125291312</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.7189970929487</v>
+        <v>16.18723019154412</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.4096430786638</v>
+        <v>25.51110040865383</v>
       </c>
       <c r="C17">
-        <v>10.49855643472638</v>
+        <v>15.1058376768127</v>
       </c>
       <c r="D17">
-        <v>8.802070388254526</v>
+        <v>5.437898848170451</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.96905074427385</v>
+        <v>22.29016027929876</v>
       </c>
       <c r="G17">
-        <v>3.661284221699868</v>
+        <v>2.080699666205504</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.11495434924682</v>
+        <v>13.90270412966749</v>
       </c>
       <c r="J17">
-        <v>10.38270895995884</v>
+        <v>6.090682268436534</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.85356425346605</v>
+        <v>7.678603318046746</v>
       </c>
       <c r="M17">
-        <v>17.03800333275372</v>
+        <v>15.05092182457111</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.75637263239559</v>
+        <v>16.15937779469604</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.28251820226273</v>
+        <v>25.19296916659378</v>
       </c>
       <c r="C18">
-        <v>10.42824247016253</v>
+        <v>14.95624473201035</v>
       </c>
       <c r="D18">
-        <v>8.80252387023385</v>
+        <v>5.422982514777579</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.99316851282956</v>
+        <v>22.24024891855021</v>
       </c>
       <c r="G18">
-        <v>3.66176013443887</v>
+        <v>2.082058441631213</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.14738508854926</v>
+        <v>13.97140469803703</v>
       </c>
       <c r="J18">
-        <v>10.38774397452395</v>
+        <v>6.105674792327701</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.85217718041953</v>
+        <v>7.646529266810996</v>
       </c>
       <c r="M18">
-        <v>17.00428735081974</v>
+        <v>14.9022564116626</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.77849142372595</v>
+        <v>16.14565093870501</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.23928508094291</v>
+        <v>25.08440747984746</v>
       </c>
       <c r="C19">
-        <v>10.40431006448422</v>
+        <v>14.90527702454261</v>
       </c>
       <c r="D19">
-        <v>8.802691000929217</v>
+        <v>5.417953156318015</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>34.00148133137047</v>
+        <v>22.22383876384644</v>
       </c>
       <c r="G19">
-        <v>3.661922397875085</v>
+        <v>2.082519921560048</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.15845626136849</v>
+        <v>13.99495245823037</v>
       </c>
       <c r="J19">
-        <v>10.38946055382391</v>
+        <v>6.110767819154163</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.85172843479051</v>
+        <v>7.635687546757143</v>
       </c>
       <c r="M19">
-        <v>16.99288132725629</v>
+        <v>14.85164729761341</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.78608706840403</v>
+        <v>16.14139095007782</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.43307950802142</v>
+        <v>25.5695772140085</v>
       </c>
       <c r="C20">
-        <v>10.51151007488251</v>
+        <v>15.13337259517164</v>
       </c>
       <c r="D20">
-        <v>8.801992909345062</v>
+        <v>5.440669491460485</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.96465693069915</v>
+        <v>22.29963130675999</v>
       </c>
       <c r="G20">
-        <v>3.661196676169347</v>
+        <v>2.080448856685487</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.10899522229736</v>
+        <v>13.8901271496164</v>
       </c>
       <c r="J20">
-        <v>10.38178269799194</v>
+        <v>6.08791542873163</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.85383088375056</v>
+        <v>7.684547908375031</v>
       </c>
       <c r="M20">
-        <v>17.04424780205112</v>
+        <v>15.07830598748805</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.75232960475845</v>
+        <v>16.16210394272337</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.07040727709229</v>
+        <v>27.14107143636966</v>
       </c>
       <c r="C21">
-        <v>10.86275118486519</v>
+        <v>15.87746433777398</v>
       </c>
       <c r="D21">
-        <v>8.800589969775324</v>
+        <v>5.518436131453065</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.8511787067645</v>
+        <v>22.58906319819479</v>
       </c>
       <c r="G21">
-        <v>3.658836572386118</v>
+        <v>2.073585501438147</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.94912189755004</v>
+        <v>13.55893644042177</v>
       </c>
       <c r="J21">
-        <v>10.3568055892928</v>
+        <v>6.01227496713782</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.86234203502812</v>
+        <v>7.849876859088575</v>
       </c>
       <c r="M21">
-        <v>17.21739581879288</v>
+        <v>15.82052397262281</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.64634189625536</v>
+        <v>16.259544505334</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.47608255107175</v>
+        <v>28.12490062079021</v>
       </c>
       <c r="C22">
-        <v>11.08540608471197</v>
+        <v>16.34702917047441</v>
       </c>
       <c r="D22">
-        <v>8.800372195700756</v>
+        <v>5.570311390283942</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.78467824025021</v>
+        <v>22.80500298657812</v>
       </c>
       <c r="G22">
-        <v>3.657352154186762</v>
+        <v>2.069166186156491</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.84933877142337</v>
+        <v>13.35947187241754</v>
       </c>
       <c r="J22">
-        <v>10.3410898656688</v>
+        <v>5.963653923616849</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.86897562018373</v>
+        <v>7.958698201913183</v>
       </c>
       <c r="M22">
-        <v>17.33085341164186</v>
+        <v>16.29090842793066</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.58263232555674</v>
+        <v>16.34499812474234</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.26059410237652</v>
+        <v>27.60373899171207</v>
       </c>
       <c r="C23">
-        <v>10.96721706288887</v>
+        <v>16.09795242031185</v>
       </c>
       <c r="D23">
-        <v>8.800424676161263</v>
+        <v>5.542530060062052</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.81946782930871</v>
+        <v>22.68724863441976</v>
       </c>
       <c r="G23">
-        <v>3.658139121127475</v>
+        <v>2.071519100200637</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.90216445889192</v>
+        <v>13.46428457324219</v>
       </c>
       <c r="J23">
-        <v>10.34942214549398</v>
+        <v>5.989531723167734</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.86533764781176</v>
+        <v>7.900553916748917</v>
       </c>
       <c r="M23">
-        <v>17.27027993759666</v>
+        <v>16.04121661605734</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.61612536618838</v>
+        <v>16.29733375116339</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.42248759496351</v>
+        <v>25.54315562839314</v>
       </c>
       <c r="C24">
-        <v>10.50565612940271</v>
+        <v>15.12093005373803</v>
       </c>
       <c r="D24">
-        <v>8.802027690886632</v>
+        <v>5.439416525369247</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.96664067313659</v>
+        <v>22.29534057680347</v>
       </c>
       <c r="G24">
-        <v>3.661236234416097</v>
+        <v>2.080562220383119</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.11168765389308</v>
+        <v>13.89580779415988</v>
       </c>
       <c r="J24">
-        <v>10.38220124006927</v>
+        <v>6.089165994162262</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.85370996407082</v>
+        <v>7.681860087648626</v>
       </c>
       <c r="M24">
-        <v>17.04142456199396</v>
+        <v>15.06593081015583</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.75415549199552</v>
+        <v>16.1608643464144</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.47573002809403</v>
+        <v>23.13197993726786</v>
       </c>
       <c r="C25">
-        <v>9.979792256137932</v>
+        <v>13.99622876245172</v>
       </c>
       <c r="D25">
-        <v>8.806779884748037</v>
+        <v>5.332865331151064</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>34.15811634962577</v>
+        <v>21.98184199326802</v>
       </c>
       <c r="G25">
-        <v>3.664827843781863</v>
+        <v>2.090630548676007</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.35787969901158</v>
+        <v>14.4259808914193</v>
       </c>
       <c r="J25">
-        <v>10.42018648518033</v>
+        <v>6.200360897505278</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.84581403797063</v>
+        <v>7.449921984781689</v>
       </c>
       <c r="M25">
-        <v>16.7966427137085</v>
+        <v>13.95295663957478</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.9267834171541</v>
+        <v>16.10047646002952</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.19113562122095</v>
+        <v>12.32437161662486</v>
       </c>
       <c r="C2">
-        <v>13.10889853617014</v>
+        <v>7.982792496879937</v>
       </c>
       <c r="D2">
-        <v>5.258594320197512</v>
+        <v>8.885851153777908</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.83785797843615</v>
+        <v>21.36057100452984</v>
       </c>
       <c r="G2">
-        <v>2.098345077197268</v>
+        <v>21.46376798874986</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.380525275123455</v>
       </c>
       <c r="I2">
-        <v>14.86434987469819</v>
+        <v>2.866936454903636</v>
       </c>
       <c r="J2">
-        <v>6.285687438413129</v>
+        <v>9.08752713576974</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.0150277554145</v>
       </c>
       <c r="L2">
-        <v>7.283282770160297</v>
+        <v>7.584721062774387</v>
       </c>
       <c r="M2">
-        <v>13.08415470868838</v>
+        <v>11.43077611065984</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.12304490800767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.55134068018139</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.57688371224469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.77091783195308</v>
+        <v>11.59460680084135</v>
       </c>
       <c r="C3">
-        <v>12.47198346282587</v>
+        <v>7.632852032340819</v>
       </c>
       <c r="D3">
-        <v>5.210949667975441</v>
+        <v>8.480388576603785</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.79048512519217</v>
+        <v>21.13422512292102</v>
       </c>
       <c r="G3">
-        <v>2.103775628064418</v>
+        <v>21.37802528070219</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.571975303680467</v>
       </c>
       <c r="I3">
-        <v>15.18824267651702</v>
+        <v>2.993592339773967</v>
       </c>
       <c r="J3">
-        <v>6.345787049766531</v>
+        <v>9.144821472247697</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.15839483655141</v>
       </c>
       <c r="L3">
-        <v>7.173321237226257</v>
+        <v>7.424121153711949</v>
       </c>
       <c r="M3">
-        <v>12.46685249988695</v>
+        <v>10.86452358445297</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.17621462742202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.92293309299543</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.63221607631979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.84663076858076</v>
+        <v>11.12031620554101</v>
       </c>
       <c r="C4">
-        <v>12.064024642412</v>
+        <v>7.412306299587744</v>
       </c>
       <c r="D4">
-        <v>5.183047645071293</v>
+        <v>8.222688970199597</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.7847448601453</v>
+        <v>21.00064735702682</v>
       </c>
       <c r="G4">
-        <v>2.107214248989005</v>
+        <v>21.33576273488998</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.694060602345875</v>
       </c>
       <c r="I4">
-        <v>15.39946228796977</v>
+        <v>3.07505767714969</v>
       </c>
       <c r="J4">
-        <v>6.383846499004695</v>
+        <v>9.182435776694778</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.2498365897751</v>
       </c>
       <c r="L4">
-        <v>7.107403745876885</v>
+        <v>7.322928490287659</v>
       </c>
       <c r="M4">
-        <v>12.07476701210821</v>
+        <v>10.50099895420388</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.22622437889662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.52073604164783</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.67147190445943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.45675761576307</v>
+        <v>10.91786306923627</v>
       </c>
       <c r="C5">
-        <v>11.89365394544938</v>
+        <v>7.329476922956005</v>
       </c>
       <c r="D5">
-        <v>5.172021039562907</v>
+        <v>8.117291385640671</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.78805740283807</v>
+        <v>20.94114996645191</v>
       </c>
       <c r="G5">
-        <v>2.108642342206067</v>
+        <v>21.31041520532467</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.745119482916119</v>
       </c>
       <c r="I5">
-        <v>15.4885255944058</v>
+        <v>3.111990649311814</v>
       </c>
       <c r="J5">
-        <v>6.39965235764603</v>
+        <v>9.196675516946566</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.28381975537923</v>
       </c>
       <c r="L5">
-        <v>7.08096434252136</v>
+        <v>7.280668845540969</v>
       </c>
       <c r="M5">
-        <v>11.91188693403477</v>
+        <v>10.35057399106062</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.25077461367596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.35450247189591</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.68448930872474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.39121891333145</v>
+        <v>10.8806281846745</v>
       </c>
       <c r="C6">
-        <v>11.86511900956258</v>
+        <v>7.32595230927777</v>
       </c>
       <c r="D6">
-        <v>5.170210938498723</v>
+        <v>8.101752766323559</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.78894225875252</v>
+        <v>20.92347921302211</v>
       </c>
       <c r="G6">
-        <v>2.108881113781717</v>
+        <v>21.29332116304543</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.753857158290052</v>
       </c>
       <c r="I6">
-        <v>15.50349193069729</v>
+        <v>3.121782733756006</v>
       </c>
       <c r="J6">
-        <v>6.402294952258996</v>
+        <v>9.197010734392181</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.28447555548304</v>
       </c>
       <c r="L6">
-        <v>7.076600201843597</v>
+        <v>7.273127960911835</v>
       </c>
       <c r="M6">
-        <v>11.88465936929405</v>
+        <v>10.32731767515309</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.25509739351664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.32866197083265</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.68150907853701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.84142642431564</v>
+        <v>11.10899417406302</v>
       </c>
       <c r="C7">
-        <v>12.06174348174536</v>
+        <v>7.438959581735004</v>
       </c>
       <c r="D7">
-        <v>5.182897540204094</v>
+        <v>8.226877404290374</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.78476694514441</v>
+        <v>20.97844242808995</v>
       </c>
       <c r="G7">
-        <v>2.107233399335968</v>
+        <v>21.29989724471638</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.69525117122663</v>
       </c>
       <c r="I7">
-        <v>15.40065146487102</v>
+        <v>3.085071341625288</v>
       </c>
       <c r="J7">
-        <v>6.384058455875266</v>
+        <v>9.176997145884995</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.23654053814259</v>
       </c>
       <c r="L7">
-        <v>7.107045437624391</v>
+        <v>7.321050520291041</v>
       </c>
       <c r="M7">
-        <v>12.07258265223851</v>
+        <v>10.50424628673411</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.22653884112912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.52385985622399</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.65741204631698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.71224673086174</v>
+        <v>12.06761552391695</v>
       </c>
       <c r="C8">
-        <v>12.89286229095256</v>
+        <v>7.898402816849121</v>
       </c>
       <c r="D8">
-        <v>5.241888195359322</v>
+        <v>8.754928922580424</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.81654885714133</v>
+        <v>21.2536435643906</v>
       </c>
       <c r="G8">
-        <v>2.100196275297435</v>
+        <v>21.38552316008879</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.446228144176411</v>
       </c>
       <c r="I8">
-        <v>14.97339152489549</v>
+        <v>2.92198366989948</v>
       </c>
       <c r="J8">
-        <v>6.306172578996924</v>
+        <v>9.099376157542546</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.04560999282638</v>
       </c>
       <c r="L8">
-        <v>7.245048424061432</v>
+        <v>7.528245655200625</v>
       </c>
       <c r="M8">
-        <v>12.87411939903769</v>
+        <v>11.24551089344311</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.13765621110536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.34476285827095</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.57612638850913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.9696756296954</v>
+        <v>13.75181483779375</v>
       </c>
       <c r="C9">
-        <v>14.38442757223262</v>
+        <v>8.705537098874023</v>
       </c>
       <c r="D9">
-        <v>5.368118657847183</v>
+        <v>9.707700693935166</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.07345393787099</v>
+        <v>21.87262349985682</v>
       </c>
       <c r="G9">
-        <v>2.087194223607772</v>
+        <v>21.70169656051479</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.992463831366942</v>
       </c>
       <c r="I9">
-        <v>14.239469373617</v>
+        <v>2.615655870206035</v>
       </c>
       <c r="J9">
-        <v>6.162384424751028</v>
+        <v>8.977005693765003</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.72337663443987</v>
       </c>
       <c r="L9">
-        <v>7.527459186433793</v>
+        <v>7.915223901332761</v>
       </c>
       <c r="M9">
-        <v>14.33577303785417</v>
+        <v>12.56102848298694</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.10988666462358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.81100047433333</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.48572249460682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.11711997272823</v>
+        <v>14.87571941955064</v>
       </c>
       <c r="C10">
-        <v>15.3917452017346</v>
+        <v>9.275027605138147</v>
       </c>
       <c r="D10">
-        <v>5.467043786439326</v>
+        <v>10.24317893105925</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.39280798101343</v>
+        <v>22.18640657707895</v>
       </c>
       <c r="G10">
-        <v>2.078084553353856</v>
+        <v>21.82325537359794</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.716128198577292</v>
       </c>
       <c r="I10">
-        <v>13.77318511766607</v>
+        <v>2.551721167681955</v>
       </c>
       <c r="J10">
-        <v>6.061842178571903</v>
+        <v>8.873698240330214</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.45614522445845</v>
       </c>
       <c r="L10">
-        <v>7.740939832413354</v>
+        <v>8.069785087491898</v>
       </c>
       <c r="M10">
-        <v>15.33555695459422</v>
+        <v>13.45719844488302</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.19072374244001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.6681362961751</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.38090408475981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.04177006797648</v>
+        <v>15.51181533633449</v>
       </c>
       <c r="C11">
-        <v>15.83022166480423</v>
+        <v>9.530275489809819</v>
       </c>
       <c r="D11">
-        <v>5.513335236000101</v>
+        <v>9.477806121497764</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.56876485214973</v>
+        <v>20.96797823730648</v>
       </c>
       <c r="G11">
-        <v>2.074026275381091</v>
+        <v>20.54339562928251</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.763970534659571</v>
       </c>
       <c r="I11">
-        <v>13.57943599692076</v>
+        <v>2.622785377590543</v>
       </c>
       <c r="J11">
-        <v>6.017128143727079</v>
+        <v>8.618082765974243</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.96751385068657</v>
       </c>
       <c r="L11">
-        <v>7.839116942074119</v>
+        <v>7.236399014291731</v>
       </c>
       <c r="M11">
-        <v>15.77328047342679</v>
+        <v>13.94068707760768</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.25198242210329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.89053224308812</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.79519562077004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.38449056301722</v>
+        <v>15.8338372627134</v>
       </c>
       <c r="C12">
-        <v>15.99339184711531</v>
+        <v>9.593713664276713</v>
       </c>
       <c r="D12">
-        <v>5.53104535223929</v>
+        <v>8.710693195004122</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.63997826089876</v>
+        <v>19.90386506597605</v>
       </c>
       <c r="G12">
-        <v>2.072500943264568</v>
+        <v>19.48229604146301</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.163477903434808</v>
       </c>
       <c r="I12">
-        <v>13.50895798515671</v>
+        <v>2.636538672134385</v>
       </c>
       <c r="J12">
-        <v>6.000336212978559</v>
+        <v>8.433152604552856</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.64389546442717</v>
       </c>
       <c r="L12">
-        <v>7.876427852277396</v>
+        <v>6.652108133256533</v>
       </c>
       <c r="M12">
-        <v>15.93651828179352</v>
+        <v>14.16162977058757</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.27889969681893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.04040662432598</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.34496618615809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.31100836833355</v>
+        <v>15.93345559697451</v>
       </c>
       <c r="C13">
-        <v>15.95837828614041</v>
+        <v>9.550402689010925</v>
       </c>
       <c r="D13">
-        <v>5.527223208226968</v>
+        <v>7.886366567416733</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.62443480406819</v>
+        <v>18.86049489561141</v>
       </c>
       <c r="G13">
-        <v>2.072828956287415</v>
+        <v>18.47008587351796</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.595243732847979</v>
       </c>
       <c r="I13">
-        <v>13.52400381011707</v>
+        <v>2.613123734981692</v>
       </c>
       <c r="J13">
-        <v>6.003946528128225</v>
+        <v>8.283431511685267</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.40875129986732</v>
       </c>
       <c r="L13">
-        <v>7.868386645849836</v>
+        <v>6.257651204612726</v>
       </c>
       <c r="M13">
-        <v>15.90147492926336</v>
+        <v>14.20623420598828</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.27293402980833</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.06730268810858</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.95155763347461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.07011418053511</v>
+        <v>15.90213829060037</v>
       </c>
       <c r="C14">
-        <v>15.84370345016949</v>
+        <v>9.478573667186318</v>
       </c>
       <c r="D14">
-        <v>5.514788666997735</v>
+        <v>7.280061749572909</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.57453085554047</v>
+        <v>18.14149946779666</v>
       </c>
       <c r="G14">
-        <v>2.073900561187073</v>
+        <v>17.78229798006156</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.607237737598595</v>
       </c>
       <c r="I14">
-        <v>13.5735782534994</v>
+        <v>2.581478345176333</v>
       </c>
       <c r="J14">
-        <v>6.015743889930594</v>
+        <v>8.194661021332122</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.28547978330364</v>
       </c>
       <c r="L14">
-        <v>7.842183967553121</v>
+        <v>6.112956036547353</v>
       </c>
       <c r="M14">
-        <v>15.7867609199087</v>
+        <v>14.15963641248797</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.2541212506234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.32114829643673</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.70253397417327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.92159527012986</v>
+        <v>15.84381513688397</v>
       </c>
       <c r="C15">
-        <v>15.77308717803081</v>
+        <v>9.447307343725814</v>
       </c>
       <c r="D15">
-        <v>5.507195521124837</v>
+        <v>7.120852659097822</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.54456483743642</v>
+        <v>17.96574680705974</v>
       </c>
       <c r="G15">
-        <v>2.074558414021241</v>
+        <v>17.61657185730004</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.842726727987591</v>
       </c>
       <c r="I15">
-        <v>13.60432842170319</v>
+        <v>2.567471206588904</v>
       </c>
       <c r="J15">
-        <v>6.022988177835996</v>
+        <v>8.179007480167915</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.26967364061024</v>
       </c>
       <c r="L15">
-        <v>7.826150880793656</v>
+        <v>6.096044495103819</v>
       </c>
       <c r="M15">
-        <v>15.71616572015663</v>
+        <v>14.11184546131643</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.24308813172405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.11358681167234</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.65026666700435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05564819794266</v>
+        <v>15.36940641434151</v>
       </c>
       <c r="C16">
-        <v>15.36268929795393</v>
+        <v>9.23266704990427</v>
       </c>
       <c r="D16">
-        <v>5.464044061275124</v>
+        <v>7.019339429675952</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.38194104223801</v>
+        <v>18.02299736010623</v>
       </c>
       <c r="G16">
-        <v>2.078351422948807</v>
+        <v>17.74368173714127</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.643995458326152</v>
       </c>
       <c r="I16">
-        <v>13.7862372645729</v>
+        <v>2.525440529466863</v>
       </c>
       <c r="J16">
-        <v>6.064784358903214</v>
+        <v>8.251180900775182</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.42723839829704</v>
       </c>
       <c r="L16">
-        <v>7.734543427328551</v>
+        <v>6.096587437109197</v>
       </c>
       <c r="M16">
-        <v>15.30660125291312</v>
+        <v>13.74029706964576</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.18723019154412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.89406244570531</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.76920660449024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.51110040865383</v>
+        <v>15.01400502308977</v>
       </c>
       <c r="C17">
-        <v>15.1058376768127</v>
+        <v>9.106092507511153</v>
       </c>
       <c r="D17">
-        <v>5.437898848170451</v>
+        <v>7.273221477999127</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.29016027929876</v>
+        <v>18.44650973482714</v>
       </c>
       <c r="G17">
-        <v>2.080699666205504</v>
+        <v>18.20336851511302</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.923379609149111</v>
       </c>
       <c r="I17">
-        <v>13.90270412966749</v>
+        <v>2.573882715800234</v>
       </c>
       <c r="J17">
-        <v>6.090682268436534</v>
+        <v>8.352984179436266</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.61070327248781</v>
       </c>
       <c r="L17">
-        <v>7.678603318046746</v>
+        <v>6.152009258923391</v>
       </c>
       <c r="M17">
-        <v>15.05092182457111</v>
+        <v>13.47563151871925</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.15937779469604</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.1371301514993</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.99041440414284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.19296916659378</v>
+        <v>14.73411258221953</v>
       </c>
       <c r="C18">
-        <v>14.95624473201035</v>
+        <v>9.022960281853804</v>
       </c>
       <c r="D18">
-        <v>5.422982514777579</v>
+        <v>7.866701289219334</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.24024891855021</v>
+        <v>19.25878732609931</v>
       </c>
       <c r="G18">
-        <v>2.082058441631213</v>
+        <v>19.0318524965263</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.699367131351071</v>
       </c>
       <c r="I18">
-        <v>13.97140469803703</v>
+        <v>2.583120903788085</v>
       </c>
       <c r="J18">
-        <v>6.105674792327701</v>
+        <v>8.497104349801226</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.85405940112599</v>
       </c>
       <c r="L18">
-        <v>7.646529266810996</v>
+        <v>6.381965697175088</v>
       </c>
       <c r="M18">
-        <v>14.9022564116626</v>
+        <v>13.27441584057694</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.14565093870501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.80614772062083</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.3383454322081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.08440747984746</v>
+        <v>14.52807629945199</v>
       </c>
       <c r="C19">
-        <v>14.90527702454261</v>
+        <v>9.029277854710809</v>
       </c>
       <c r="D19">
-        <v>5.417953156318015</v>
+        <v>8.700035207258566</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.22383876384644</v>
+        <v>20.31003804545187</v>
       </c>
       <c r="G19">
-        <v>2.082519921560048</v>
+        <v>20.05410785856552</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.263519326609696</v>
       </c>
       <c r="I19">
-        <v>13.99495245823037</v>
+        <v>2.579650785185204</v>
       </c>
       <c r="J19">
-        <v>6.110767819154163</v>
+        <v>8.659231918156596</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.12195867319762</v>
       </c>
       <c r="L19">
-        <v>7.635687546757143</v>
+        <v>6.888967233171892</v>
       </c>
       <c r="M19">
-        <v>14.85164729761341</v>
+        <v>13.1518189029151</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.14139095007782</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.76870955466127</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.74898184817105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.5695772140085</v>
+        <v>14.5692361613004</v>
       </c>
       <c r="C20">
-        <v>15.13337259517164</v>
+        <v>9.201212136434739</v>
       </c>
       <c r="D20">
-        <v>5.440669491460485</v>
+        <v>10.11423132684092</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.29963130675999</v>
+        <v>22.03364802139421</v>
       </c>
       <c r="G20">
-        <v>2.080448856685487</v>
+        <v>21.67546277604526</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.788007717386467</v>
       </c>
       <c r="I20">
-        <v>13.8901271496164</v>
+        <v>2.512645674032314</v>
       </c>
       <c r="J20">
-        <v>6.08791542873163</v>
+        <v>8.881808959777004</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.48111754011231</v>
       </c>
       <c r="L20">
-        <v>7.684547908375031</v>
+        <v>8.021192028199836</v>
       </c>
       <c r="M20">
-        <v>15.07830598748805</v>
+        <v>13.24196785587358</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.16210394272337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.4553234143661</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.36052526131862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.14107143636966</v>
+        <v>15.36693426934575</v>
       </c>
       <c r="C21">
-        <v>15.87746433777398</v>
+        <v>9.615359278777184</v>
       </c>
       <c r="D21">
-        <v>5.518436131453065</v>
+        <v>10.68788700468243</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.58906319819479</v>
+        <v>22.53699886716394</v>
       </c>
       <c r="G21">
-        <v>2.073585501438147</v>
+        <v>22.04435362278396</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.592174992523793</v>
       </c>
       <c r="I21">
-        <v>13.55893644042177</v>
+        <v>2.667923741426157</v>
       </c>
       <c r="J21">
-        <v>6.01227496713782</v>
+        <v>8.847108771335996</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.35520992702586</v>
       </c>
       <c r="L21">
-        <v>7.849876859088575</v>
+        <v>8.314152455287038</v>
       </c>
       <c r="M21">
-        <v>15.82052397262281</v>
+        <v>13.88369584151493</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.259544505334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.29052881316571</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.3936406621746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.12490062079021</v>
+        <v>15.88252337508044</v>
       </c>
       <c r="C22">
-        <v>16.34702917047441</v>
+        <v>9.849365560744742</v>
       </c>
       <c r="D22">
-        <v>5.570311390283942</v>
+        <v>10.98676456829714</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.80500298657812</v>
+        <v>22.81520672020451</v>
       </c>
       <c r="G22">
-        <v>2.069166186156491</v>
+        <v>22.2625477521573</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.738309065185802</v>
       </c>
       <c r="I22">
-        <v>13.35947187241754</v>
+        <v>2.761028267465659</v>
       </c>
       <c r="J22">
-        <v>5.963653923616849</v>
+        <v>8.822154977813454</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.27318590466871</v>
       </c>
       <c r="L22">
-        <v>7.958698201913183</v>
+        <v>8.445064598361645</v>
       </c>
       <c r="M22">
-        <v>16.29090842793066</v>
+        <v>14.28727260714932</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.34499812474234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.74483609485401</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.40832039849032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.60373899171207</v>
+        <v>15.61700927818179</v>
       </c>
       <c r="C23">
-        <v>16.09795242031185</v>
+        <v>9.698423828361404</v>
       </c>
       <c r="D23">
-        <v>5.542530060062052</v>
+        <v>10.82300521455037</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.68724863441976</v>
+        <v>22.68918595313971</v>
       </c>
       <c r="G23">
-        <v>2.071519100200637</v>
+        <v>22.18416071681119</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.661057850138204</v>
       </c>
       <c r="I23">
-        <v>13.46428457324219</v>
+        <v>2.706299704551535</v>
       </c>
       <c r="J23">
-        <v>5.989531723167734</v>
+        <v>8.841694718958584</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.33270489842071</v>
       </c>
       <c r="L23">
-        <v>7.900553916748917</v>
+        <v>8.376719587071813</v>
       </c>
       <c r="M23">
-        <v>16.04121661605734</v>
+        <v>14.06832106887346</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.29733375116339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.49916579991482</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.41618470479093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.54315562839314</v>
+        <v>14.55285130455858</v>
       </c>
       <c r="C24">
-        <v>15.12093005373803</v>
+        <v>9.154792252479394</v>
       </c>
       <c r="D24">
-        <v>5.439416525369247</v>
+        <v>10.19079083980529</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.29534057680347</v>
+        <v>22.18495325323781</v>
       </c>
       <c r="G24">
-        <v>2.080562220383119</v>
+        <v>21.84998941912121</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.765101680202771</v>
       </c>
       <c r="I24">
-        <v>13.89580779415988</v>
+        <v>2.503642621483612</v>
       </c>
       <c r="J24">
-        <v>6.089165994162262</v>
+        <v>8.91102613020872</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.54052398611147</v>
       </c>
       <c r="L24">
-        <v>7.681860087648626</v>
+        <v>8.110097358428661</v>
       </c>
       <c r="M24">
-        <v>15.06593081015583</v>
+        <v>13.21518704017082</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.1608643464144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.5419329142244</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.43329202947031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.13197993726786</v>
+        <v>13.30562663916432</v>
       </c>
       <c r="C25">
-        <v>13.99622876245172</v>
+        <v>8.53750316719988</v>
       </c>
       <c r="D25">
-        <v>5.332865331151064</v>
+        <v>9.467191328494303</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.98184199326802</v>
+        <v>21.66395809522433</v>
       </c>
       <c r="G25">
-        <v>2.090630548676007</v>
+        <v>21.54426271498044</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.112292520005189</v>
       </c>
       <c r="I25">
-        <v>14.4259808914193</v>
+        <v>2.713177073825525</v>
       </c>
       <c r="J25">
-        <v>6.200360897505278</v>
+        <v>8.997888063715811</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.78283417240504</v>
       </c>
       <c r="L25">
-        <v>7.449921984781689</v>
+        <v>7.810861562334871</v>
       </c>
       <c r="M25">
-        <v>13.95295663957478</v>
+        <v>12.22790191879515</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.10047646002952</v>
+        <v>13.43768804101915</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.47989562877836</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.32437161662486</v>
+        <v>12.32692206018309</v>
       </c>
       <c r="C2">
-        <v>7.982792496879937</v>
+        <v>8.006431867848326</v>
       </c>
       <c r="D2">
-        <v>8.885851153777908</v>
+        <v>8.98159517142517</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.36057100452984</v>
+        <v>21.00263921074864</v>
       </c>
       <c r="G2">
-        <v>21.46376798874986</v>
+        <v>20.29314348019644</v>
       </c>
       <c r="H2">
-        <v>2.380525275123455</v>
+        <v>2.342064468111521</v>
       </c>
       <c r="I2">
-        <v>2.866936454903636</v>
+        <v>2.758584542922871</v>
       </c>
       <c r="J2">
-        <v>9.08752713576974</v>
+        <v>9.290235037724024</v>
       </c>
       <c r="K2">
-        <v>14.0150277554145</v>
+        <v>13.59293510715365</v>
       </c>
       <c r="L2">
-        <v>7.584721062774387</v>
+        <v>11.47495647260457</v>
       </c>
       <c r="M2">
-        <v>11.43077611065984</v>
+        <v>8.596147033149165</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.59550943063145</v>
       </c>
       <c r="O2">
-        <v>12.55134068018139</v>
+        <v>11.49129782234924</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.57688371224469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.63087175043804</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.28025320414366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.59460680084135</v>
+        <v>11.62777020062074</v>
       </c>
       <c r="C3">
-        <v>7.632852032340819</v>
+        <v>7.561004758439738</v>
       </c>
       <c r="D3">
-        <v>8.480388576603785</v>
+        <v>8.569836765216458</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.13422512292102</v>
+        <v>20.81298530063867</v>
       </c>
       <c r="G3">
-        <v>21.37802528070219</v>
+        <v>20.29958460208009</v>
       </c>
       <c r="H3">
-        <v>2.571975303680467</v>
+        <v>2.527203338349289</v>
       </c>
       <c r="I3">
-        <v>2.993592339773967</v>
+        <v>2.871104903829728</v>
       </c>
       <c r="J3">
-        <v>9.144821472247697</v>
+        <v>9.323239313569102</v>
       </c>
       <c r="K3">
-        <v>14.15839483655141</v>
+        <v>13.74771968955248</v>
       </c>
       <c r="L3">
-        <v>7.424121153711949</v>
+        <v>11.64613586271869</v>
       </c>
       <c r="M3">
-        <v>10.86452358445297</v>
+        <v>8.695793404914735</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.441924845966474</v>
       </c>
       <c r="O3">
-        <v>11.92293309299543</v>
+        <v>10.91431496646567</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.63221607631979</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.99273760125804</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.35490639302485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.12031620554101</v>
+        <v>11.17384279177911</v>
       </c>
       <c r="C4">
-        <v>7.412306299587744</v>
+        <v>7.278873234198505</v>
       </c>
       <c r="D4">
-        <v>8.222688970199597</v>
+        <v>8.308451637793187</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.00064735702682</v>
+        <v>20.70102820735554</v>
       </c>
       <c r="G4">
-        <v>21.33576273488998</v>
+        <v>20.31487520769513</v>
       </c>
       <c r="H4">
-        <v>2.694060602345875</v>
+        <v>2.645293283742033</v>
       </c>
       <c r="I4">
-        <v>3.07505767714969</v>
+        <v>2.943801094828136</v>
       </c>
       <c r="J4">
-        <v>9.182435776694778</v>
+        <v>9.344537106399081</v>
       </c>
       <c r="K4">
-        <v>14.2498365897751</v>
+        <v>13.84521559342014</v>
       </c>
       <c r="L4">
-        <v>7.322928490287659</v>
+        <v>11.75523171818043</v>
       </c>
       <c r="M4">
-        <v>10.50099895420388</v>
+        <v>8.77297683918361</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.345225705898065</v>
       </c>
       <c r="O4">
-        <v>11.52073604164783</v>
+        <v>10.54401603103268</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.67147190445943</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.58430954703224</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.40504117522236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.91786306923627</v>
+        <v>10.98015686889799</v>
       </c>
       <c r="C5">
-        <v>7.329476922956005</v>
+        <v>7.170807805353776</v>
       </c>
       <c r="D5">
-        <v>8.117291385640671</v>
+        <v>8.201576885224604</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.94114996645191</v>
+        <v>20.6502081465976</v>
       </c>
       <c r="G5">
-        <v>21.31041520532467</v>
+        <v>20.31328099270411</v>
       </c>
       <c r="H5">
-        <v>2.745119482916119</v>
+        <v>2.694687779881104</v>
       </c>
       <c r="I5">
-        <v>3.111990649311814</v>
+        <v>2.977637705347712</v>
       </c>
       <c r="J5">
-        <v>9.196675516946566</v>
+        <v>9.35178979489269</v>
       </c>
       <c r="K5">
-        <v>14.28381975537923</v>
+        <v>13.88159437198702</v>
       </c>
       <c r="L5">
-        <v>7.280668845540969</v>
+        <v>11.79658285400138</v>
       </c>
       <c r="M5">
-        <v>10.35057399106062</v>
+        <v>8.806610097051253</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.304852126745331</v>
       </c>
       <c r="O5">
-        <v>11.35450247189591</v>
+        <v>10.39077893052101</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.68448930872474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.41545178565257</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.42234450070542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.8806281846745</v>
+        <v>10.94447920022412</v>
       </c>
       <c r="C6">
-        <v>7.32595230927777</v>
+        <v>7.16374373635789</v>
       </c>
       <c r="D6">
-        <v>8.101752766323559</v>
+        <v>8.18575788769888</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.92347921302211</v>
+        <v>20.63409964322343</v>
       </c>
       <c r="G6">
-        <v>21.29332116304543</v>
+        <v>20.3002843023558</v>
       </c>
       <c r="H6">
-        <v>2.753857158290052</v>
+        <v>2.703140859531552</v>
       </c>
       <c r="I6">
-        <v>3.121782733756006</v>
+        <v>2.987574514481899</v>
       </c>
       <c r="J6">
-        <v>9.197010734392181</v>
+        <v>9.350952398072799</v>
       </c>
       <c r="K6">
-        <v>14.28447555548304</v>
+        <v>13.88283293135784</v>
       </c>
       <c r="L6">
-        <v>7.273127960911835</v>
+        <v>11.79850353068702</v>
       </c>
       <c r="M6">
-        <v>10.32731767515309</v>
+        <v>8.810266493728863</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.297638859498464</v>
       </c>
       <c r="O6">
-        <v>11.32866197083265</v>
+        <v>10.36703475105787</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.68150907853701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.38913852613446</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.42017973941459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.10899417406302</v>
+        <v>11.16341726578901</v>
       </c>
       <c r="C7">
-        <v>7.438959581735004</v>
+        <v>7.302718215118484</v>
       </c>
       <c r="D7">
-        <v>8.226877404290374</v>
+        <v>8.316294979060915</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.97844242808995</v>
+        <v>20.66727168351569</v>
       </c>
       <c r="G7">
-        <v>21.29989724471638</v>
+        <v>20.34395240410907</v>
       </c>
       <c r="H7">
-        <v>2.69525117122663</v>
+        <v>2.646833682377042</v>
       </c>
       <c r="I7">
-        <v>3.085071341625288</v>
+        <v>2.955942791904969</v>
       </c>
       <c r="J7">
-        <v>9.176997145884995</v>
+        <v>9.31096756335195</v>
       </c>
       <c r="K7">
-        <v>14.23654053814259</v>
+        <v>13.82772349813841</v>
       </c>
       <c r="L7">
-        <v>7.321050520291041</v>
+        <v>11.73769174240877</v>
       </c>
       <c r="M7">
-        <v>10.50424628673411</v>
+        <v>8.764713666100837</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.34299633041777</v>
       </c>
       <c r="O7">
-        <v>11.52385985622399</v>
+        <v>10.54597373885507</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.65741204631698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.58784607022451</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.38342023468208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.06761552391695</v>
+        <v>12.08247598824503</v>
       </c>
       <c r="C8">
-        <v>7.898402816849121</v>
+        <v>7.878446984816041</v>
       </c>
       <c r="D8">
-        <v>8.754928922580424</v>
+        <v>8.860265043405839</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.2536435643906</v>
+        <v>20.86979950953356</v>
       </c>
       <c r="G8">
-        <v>21.38552316008879</v>
+        <v>20.46154538322751</v>
       </c>
       <c r="H8">
-        <v>2.446228144176411</v>
+        <v>2.406786010292176</v>
       </c>
       <c r="I8">
-        <v>2.92198366989948</v>
+        <v>2.812326572634667</v>
       </c>
       <c r="J8">
-        <v>9.099376157542546</v>
+        <v>9.202988562241762</v>
       </c>
       <c r="K8">
-        <v>14.04560999282638</v>
+        <v>13.61296370722816</v>
       </c>
       <c r="L8">
-        <v>7.528245655200625</v>
+        <v>11.50328604617667</v>
       </c>
       <c r="M8">
-        <v>11.24551089344311</v>
+        <v>8.607213887341022</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.540208692700524</v>
       </c>
       <c r="O8">
-        <v>12.34476285827095</v>
+        <v>11.29861873206821</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.57612638850913</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.42253928006986</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.26066952361914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.75181483779375</v>
+        <v>13.69857675132337</v>
       </c>
       <c r="C9">
-        <v>8.705537098874023</v>
+        <v>8.902102283442419</v>
       </c>
       <c r="D9">
-        <v>9.707700693935166</v>
+        <v>9.831414437167529</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.87262349985682</v>
+        <v>21.38325719021981</v>
       </c>
       <c r="G9">
-        <v>21.70169656051479</v>
+        <v>20.61230885362837</v>
       </c>
       <c r="H9">
-        <v>1.992463831366942</v>
+        <v>1.968331163266019</v>
       </c>
       <c r="I9">
-        <v>2.615655870206035</v>
+        <v>2.539141672224507</v>
       </c>
       <c r="J9">
-        <v>8.977005693765003</v>
+        <v>9.108108420392155</v>
       </c>
       <c r="K9">
-        <v>13.72337663443987</v>
+        <v>13.2519000014122</v>
       </c>
       <c r="L9">
-        <v>7.915223901332761</v>
+        <v>11.11334559236242</v>
       </c>
       <c r="M9">
-        <v>12.56102848298694</v>
+        <v>8.451448150621669</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.910573359352795</v>
       </c>
       <c r="O9">
-        <v>13.81100047433333</v>
+        <v>12.63906393904367</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.48572249460682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.91164672582221</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.10906762380796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.87571941955064</v>
+        <v>14.78416295367512</v>
       </c>
       <c r="C10">
-        <v>9.275027605138147</v>
+        <v>9.587338290007263</v>
       </c>
       <c r="D10">
-        <v>10.24317893105925</v>
+        <v>10.39688818362353</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.18640657707895</v>
+        <v>21.56034437969742</v>
       </c>
       <c r="G10">
-        <v>21.82325537359794</v>
+        <v>21.00736273694213</v>
       </c>
       <c r="H10">
-        <v>1.716128198577292</v>
+        <v>1.704334603105031</v>
       </c>
       <c r="I10">
-        <v>2.551721167681955</v>
+        <v>2.610817036812522</v>
       </c>
       <c r="J10">
-        <v>8.873698240330214</v>
+        <v>8.871774378928851</v>
       </c>
       <c r="K10">
-        <v>13.45614522445845</v>
+        <v>12.93223159713041</v>
       </c>
       <c r="L10">
-        <v>8.069785087491898</v>
+        <v>10.80136948186137</v>
       </c>
       <c r="M10">
-        <v>13.45719844488302</v>
+        <v>8.360671560440981</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.052934371848961</v>
       </c>
       <c r="O10">
-        <v>14.6681362961751</v>
+        <v>13.54528749892694</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.38090408475981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.78475297276405</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.915641387354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.51181533633449</v>
+        <v>15.42772578848009</v>
       </c>
       <c r="C11">
-        <v>9.530275489809819</v>
+        <v>9.791669765339799</v>
       </c>
       <c r="D11">
-        <v>9.477806121497764</v>
+        <v>9.660558597495884</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.96797823730648</v>
+        <v>20.24946712549238</v>
       </c>
       <c r="G11">
-        <v>20.54339562928251</v>
+        <v>20.57306669686417</v>
       </c>
       <c r="H11">
-        <v>2.763970534659571</v>
+        <v>2.760520255568653</v>
       </c>
       <c r="I11">
-        <v>2.622785377590543</v>
+        <v>2.673976392750331</v>
       </c>
       <c r="J11">
-        <v>8.618082765974243</v>
+        <v>8.405187139732117</v>
       </c>
       <c r="K11">
-        <v>12.96751385068657</v>
+        <v>12.44950287898327</v>
       </c>
       <c r="L11">
-        <v>7.236399014291731</v>
+        <v>10.45290532823057</v>
       </c>
       <c r="M11">
-        <v>13.94068707760768</v>
+        <v>8.016997223635377</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.218065158108105</v>
       </c>
       <c r="O11">
-        <v>13.89053224308812</v>
+        <v>14.01239200375861</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.79519562077004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.00565364761598</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.27517559384114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.8338372627134</v>
+        <v>15.76204372149147</v>
       </c>
       <c r="C12">
-        <v>9.593713664276713</v>
+        <v>9.798044399818533</v>
       </c>
       <c r="D12">
-        <v>8.710693195004122</v>
+        <v>8.899521867081535</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.90386506597605</v>
+        <v>19.18212583453495</v>
       </c>
       <c r="G12">
-        <v>19.48229604146301</v>
+        <v>19.91493018435154</v>
       </c>
       <c r="H12">
-        <v>4.163477903434808</v>
+        <v>4.161969781808937</v>
       </c>
       <c r="I12">
-        <v>2.636538672134385</v>
+        <v>2.684710581659581</v>
       </c>
       <c r="J12">
-        <v>8.433152604552856</v>
+        <v>8.193566666876979</v>
       </c>
       <c r="K12">
-        <v>12.64389546442717</v>
+        <v>12.16089484593638</v>
       </c>
       <c r="L12">
-        <v>6.652108133256533</v>
+        <v>10.26834388301894</v>
       </c>
       <c r="M12">
-        <v>14.16162977058757</v>
+        <v>7.775292886709331</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.636518091326912</v>
       </c>
       <c r="O12">
-        <v>13.04040662432598</v>
+        <v>14.22034028527084</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.34496618615809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.14956272986093</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.82988395766114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.93345559697451</v>
+        <v>15.87727678213449</v>
       </c>
       <c r="C13">
-        <v>9.550402689010925</v>
+        <v>9.698776454143959</v>
       </c>
       <c r="D13">
-        <v>7.886366567416733</v>
+        <v>8.056797655362217</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18.86049489561141</v>
+        <v>18.22662608126821</v>
       </c>
       <c r="G13">
-        <v>18.47008587351796</v>
+        <v>18.82181777318208</v>
       </c>
       <c r="H13">
-        <v>5.595243732847979</v>
+        <v>5.593477329019837</v>
       </c>
       <c r="I13">
-        <v>2.613123734981692</v>
+        <v>2.664056642341131</v>
       </c>
       <c r="J13">
-        <v>8.283431511685267</v>
+        <v>8.137921850759406</v>
       </c>
       <c r="K13">
-        <v>12.40875129986732</v>
+        <v>11.98885479677609</v>
       </c>
       <c r="L13">
-        <v>6.257651204612726</v>
+        <v>10.17052904235351</v>
       </c>
       <c r="M13">
-        <v>14.20623420598828</v>
+        <v>7.596488343525968</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.248803901251312</v>
       </c>
       <c r="O13">
-        <v>12.06730268810858</v>
+        <v>14.25562489085266</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.95155763347461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.16534147499875</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.50125882743088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.90213829060037</v>
+        <v>15.85861331412388</v>
       </c>
       <c r="C14">
-        <v>9.478573667186318</v>
+        <v>9.587497477956791</v>
       </c>
       <c r="D14">
-        <v>7.280061749572909</v>
+        <v>7.427290363181298</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.14149946779666</v>
+        <v>17.60492147274195</v>
       </c>
       <c r="G14">
-        <v>17.78229798006156</v>
+        <v>17.87781637501727</v>
       </c>
       <c r="H14">
-        <v>6.607237737598595</v>
+        <v>6.604845391757708</v>
       </c>
       <c r="I14">
-        <v>2.581478345176333</v>
+        <v>2.637271199570857</v>
       </c>
       <c r="J14">
-        <v>8.194661021332122</v>
+        <v>8.150869485184401</v>
       </c>
       <c r="K14">
-        <v>12.28547978330364</v>
+        <v>11.9172582978985</v>
       </c>
       <c r="L14">
-        <v>6.112956036547353</v>
+        <v>10.13367016572114</v>
       </c>
       <c r="M14">
-        <v>14.15963641248797</v>
+        <v>7.502108366756001</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.110228961409472</v>
       </c>
       <c r="O14">
-        <v>11.32114829643673</v>
+        <v>14.20393472372776</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.70253397417327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.40895744733086</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.31963483231448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.84381513688397</v>
+        <v>15.80425272793261</v>
       </c>
       <c r="C15">
-        <v>9.447307343725814</v>
+        <v>9.546468017738277</v>
       </c>
       <c r="D15">
-        <v>7.120852659097822</v>
+        <v>7.258263194498173</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.96574680705974</v>
+        <v>17.46756589482526</v>
       </c>
       <c r="G15">
-        <v>17.61657185730004</v>
+        <v>17.57003865994448</v>
       </c>
       <c r="H15">
-        <v>6.842726727987591</v>
+        <v>6.839958847598242</v>
       </c>
       <c r="I15">
-        <v>2.567471206588904</v>
+        <v>2.62621239497012</v>
       </c>
       <c r="J15">
-        <v>8.179007480167915</v>
+        <v>8.176252433952063</v>
       </c>
       <c r="K15">
-        <v>12.26967364061024</v>
+        <v>11.91760953348312</v>
       </c>
       <c r="L15">
-        <v>6.096044495103819</v>
+        <v>10.13564348171887</v>
       </c>
       <c r="M15">
-        <v>14.11184546131643</v>
+        <v>7.48991285565708</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.095417625893332</v>
       </c>
       <c r="O15">
-        <v>11.11358681167234</v>
+        <v>14.15554213343365</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.65026666700435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.19783969157612</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.2930592760989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.36940641434151</v>
+        <v>15.33834255253545</v>
       </c>
       <c r="C16">
-        <v>9.23266704990427</v>
+        <v>9.324697068366561</v>
       </c>
       <c r="D16">
-        <v>7.019339429675952</v>
+        <v>7.122661156431839</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.02299736010623</v>
+        <v>17.64697941349582</v>
       </c>
       <c r="G16">
-        <v>17.74368173714127</v>
+        <v>17.06721082060483</v>
       </c>
       <c r="H16">
-        <v>6.643995458326152</v>
+        <v>6.638714881724495</v>
       </c>
       <c r="I16">
-        <v>2.525440529466863</v>
+        <v>2.559708111840856</v>
       </c>
       <c r="J16">
-        <v>8.251180900775182</v>
+        <v>8.405915137151796</v>
       </c>
       <c r="K16">
-        <v>12.42723839829704</v>
+        <v>12.10444847239947</v>
       </c>
       <c r="L16">
-        <v>6.096587437109197</v>
+        <v>10.25610780391755</v>
       </c>
       <c r="M16">
-        <v>13.74029706964576</v>
+        <v>7.608261711280361</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.102070381923248</v>
       </c>
       <c r="O16">
-        <v>10.89406244570531</v>
+        <v>13.78936767993775</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.76920660449024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.96954435603471</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.4890710807494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.01400502308977</v>
+        <v>14.98354820110735</v>
       </c>
       <c r="C17">
-        <v>9.106092507511153</v>
+        <v>9.208828608484392</v>
       </c>
       <c r="D17">
-        <v>7.273221477999127</v>
+        <v>7.366239779330505</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.44650973482714</v>
+        <v>18.10319122295404</v>
       </c>
       <c r="G17">
-        <v>18.20336851511302</v>
+        <v>17.26192185323909</v>
       </c>
       <c r="H17">
-        <v>5.923379609149111</v>
+        <v>5.915973686959033</v>
       </c>
       <c r="I17">
-        <v>2.573882715800234</v>
+        <v>2.522761671898707</v>
       </c>
       <c r="J17">
-        <v>8.352984179436266</v>
+        <v>8.575543303489617</v>
       </c>
       <c r="K17">
-        <v>12.61070327248781</v>
+        <v>12.28401286846167</v>
       </c>
       <c r="L17">
-        <v>6.152009258923391</v>
+        <v>10.37731575581408</v>
       </c>
       <c r="M17">
-        <v>13.47563151871925</v>
+        <v>7.7398570154762</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.159046465738603</v>
       </c>
       <c r="O17">
-        <v>11.1371301514993</v>
+        <v>13.53029069290498</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.99041440414284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.21207717281162</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.72849486968816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.73411258221953</v>
+        <v>14.69602695545575</v>
       </c>
       <c r="C18">
-        <v>9.022960281853804</v>
+        <v>9.159917281900524</v>
       </c>
       <c r="D18">
-        <v>7.866701289219334</v>
+        <v>7.96193526768697</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.25878732609931</v>
+        <v>18.89779535620375</v>
       </c>
       <c r="G18">
-        <v>19.0318524965263</v>
+        <v>17.94625001552504</v>
       </c>
       <c r="H18">
-        <v>4.699367131351071</v>
+        <v>4.689428377755972</v>
       </c>
       <c r="I18">
-        <v>2.583120903788085</v>
+        <v>2.518905231499633</v>
       </c>
       <c r="J18">
-        <v>8.497104349801226</v>
+        <v>8.73886276832155</v>
       </c>
       <c r="K18">
-        <v>12.85405940112599</v>
+        <v>12.50024007909746</v>
       </c>
       <c r="L18">
-        <v>6.381965697175088</v>
+        <v>10.52946865860745</v>
       </c>
       <c r="M18">
-        <v>13.27441584057694</v>
+        <v>7.910476371628704</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.3868359938278</v>
       </c>
       <c r="O18">
-        <v>11.80614772062083</v>
+        <v>13.33731340051515</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.3383454322081</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.8868462232839</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.06110745199751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.52807629945199</v>
+        <v>14.47611122045234</v>
       </c>
       <c r="C19">
-        <v>9.029277854710809</v>
+        <v>9.221001926695179</v>
       </c>
       <c r="D19">
-        <v>8.700035207258566</v>
+        <v>8.804751293489609</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.31003804545187</v>
+        <v>19.90048523526117</v>
       </c>
       <c r="G19">
-        <v>20.05410785856552</v>
+        <v>18.8745384339405</v>
       </c>
       <c r="H19">
-        <v>3.263519326609696</v>
+        <v>3.249991891282954</v>
       </c>
       <c r="I19">
-        <v>2.579650785185204</v>
+        <v>2.517179872890671</v>
       </c>
       <c r="J19">
-        <v>8.659231918156596</v>
+        <v>8.892441419969405</v>
       </c>
       <c r="K19">
-        <v>13.12195867319762</v>
+        <v>12.72596138938638</v>
       </c>
       <c r="L19">
-        <v>6.888967233171892</v>
+        <v>10.69117414136899</v>
       </c>
       <c r="M19">
-        <v>13.1518189029151</v>
+        <v>8.095636839807854</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.888666467398482</v>
       </c>
       <c r="O19">
-        <v>12.76870955466127</v>
+        <v>13.22492462515342</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.74898184817105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.85921603533647</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.43587009522199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.5692361613004</v>
+        <v>14.48610283840649</v>
       </c>
       <c r="C20">
-        <v>9.201212136434739</v>
+        <v>9.499750062800882</v>
       </c>
       <c r="D20">
-        <v>10.11423132684092</v>
+        <v>10.24863496995114</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.03364802139421</v>
+        <v>21.48582976440644</v>
       </c>
       <c r="G20">
-        <v>21.67546277604526</v>
+        <v>20.55570259538881</v>
       </c>
       <c r="H20">
-        <v>1.788007717386467</v>
+        <v>1.771881969997219</v>
       </c>
       <c r="I20">
-        <v>2.512645674032314</v>
+        <v>2.582286929487882</v>
       </c>
       <c r="J20">
-        <v>8.881808959777004</v>
+        <v>9.008657038527382</v>
       </c>
       <c r="K20">
-        <v>13.48111754011231</v>
+        <v>12.9919426756449</v>
       </c>
       <c r="L20">
-        <v>8.021192028199836</v>
+        <v>10.86464124571564</v>
       </c>
       <c r="M20">
-        <v>13.24196785587358</v>
+        <v>8.359906799049144</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.008703631391962</v>
       </c>
       <c r="O20">
-        <v>14.4553234143661</v>
+        <v>13.33066356170123</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.36052526131862</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.56611512342693</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.9490490636471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.36693426934575</v>
+        <v>15.26206818313517</v>
       </c>
       <c r="C21">
-        <v>9.615359278777184</v>
+        <v>9.945074349686353</v>
       </c>
       <c r="D21">
-        <v>10.68788700468243</v>
+        <v>10.90562251268987</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.53699886716394</v>
+        <v>21.65898540961521</v>
       </c>
       <c r="G21">
-        <v>22.04435362278396</v>
+        <v>22.37798956354063</v>
       </c>
       <c r="H21">
-        <v>1.592174992523793</v>
+        <v>1.593625428241037</v>
       </c>
       <c r="I21">
-        <v>2.667923741426157</v>
+        <v>2.714076752806995</v>
       </c>
       <c r="J21">
-        <v>8.847108771335996</v>
+        <v>8.440914723069747</v>
       </c>
       <c r="K21">
-        <v>13.35520992702586</v>
+        <v>12.7255331159903</v>
       </c>
       <c r="L21">
-        <v>8.314152455287038</v>
+        <v>10.62327829360742</v>
       </c>
       <c r="M21">
-        <v>13.88369584151493</v>
+        <v>8.286269138451514</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.286117595454206</v>
       </c>
       <c r="O21">
-        <v>15.29052881316571</v>
+        <v>13.96497215428708</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.3936406621746</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.42268032529276</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.75414041305046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.88252337508044</v>
+        <v>15.76610808374602</v>
       </c>
       <c r="C22">
-        <v>9.849365560744742</v>
+        <v>10.18941318541561</v>
       </c>
       <c r="D22">
-        <v>10.98676456829714</v>
+        <v>11.26111243019983</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.81520672020451</v>
+        <v>21.70866551868236</v>
       </c>
       <c r="G22">
-        <v>22.2625477521573</v>
+        <v>23.68985215225447</v>
       </c>
       <c r="H22">
-        <v>1.738309065185802</v>
+        <v>1.730731911744058</v>
       </c>
       <c r="I22">
-        <v>2.761028267465659</v>
+        <v>2.791033925443551</v>
       </c>
       <c r="J22">
-        <v>8.822154977813454</v>
+        <v>8.121026909174875</v>
       </c>
       <c r="K22">
-        <v>13.27318590466871</v>
+        <v>12.54425101515655</v>
       </c>
       <c r="L22">
-        <v>8.445064598361645</v>
+        <v>10.46844129590793</v>
       </c>
       <c r="M22">
-        <v>14.28727260714932</v>
+        <v>8.24015245728444</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.407556462150803</v>
       </c>
       <c r="O22">
-        <v>15.74483609485401</v>
+        <v>14.36244541872552</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.40832039849032</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.89018151263645</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.60726179010409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.61700927818179</v>
+        <v>15.50520926425002</v>
       </c>
       <c r="C23">
-        <v>9.698423828361404</v>
+        <v>10.04062764353159</v>
       </c>
       <c r="D23">
-        <v>10.82300521455037</v>
+        <v>11.05922250514129</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.68918595313971</v>
+        <v>21.73344098554108</v>
       </c>
       <c r="G23">
-        <v>22.18416071681119</v>
+        <v>22.84518853305943</v>
       </c>
       <c r="H23">
-        <v>1.661057850138204</v>
+        <v>1.658850575041082</v>
       </c>
       <c r="I23">
-        <v>2.706299704551535</v>
+        <v>2.744104587165081</v>
       </c>
       <c r="J23">
-        <v>8.841694718958584</v>
+        <v>8.331964033533758</v>
       </c>
       <c r="K23">
-        <v>13.33270489842071</v>
+        <v>12.666837710702</v>
       </c>
       <c r="L23">
-        <v>8.376719587071813</v>
+        <v>10.56600639511373</v>
       </c>
       <c r="M23">
-        <v>14.06832106887346</v>
+        <v>8.288465660812291</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.344859736219606</v>
       </c>
       <c r="O23">
-        <v>15.49916579991482</v>
+        <v>14.14900311013788</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.41618470479093</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.636568151784</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.7213022747752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.55285130455858</v>
+        <v>14.46822135940627</v>
       </c>
       <c r="C24">
-        <v>9.154792252479394</v>
+        <v>9.456422127071871</v>
       </c>
       <c r="D24">
-        <v>10.19079083980529</v>
+        <v>10.32579530223033</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.18495325323781</v>
+        <v>21.63281391709807</v>
       </c>
       <c r="G24">
-        <v>21.84998941912121</v>
+        <v>20.71092883594264</v>
       </c>
       <c r="H24">
-        <v>1.765101680202771</v>
+        <v>1.748910500484294</v>
       </c>
       <c r="I24">
-        <v>2.503642621483612</v>
+        <v>2.571068829162781</v>
       </c>
       <c r="J24">
-        <v>8.91102613020872</v>
+        <v>9.03914617087389</v>
       </c>
       <c r="K24">
-        <v>13.54052398611147</v>
+        <v>13.04457521257246</v>
       </c>
       <c r="L24">
-        <v>8.110097358428661</v>
+        <v>10.90243879517539</v>
       </c>
       <c r="M24">
-        <v>13.21518704017082</v>
+        <v>8.402684233335718</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.097144597975287</v>
       </c>
       <c r="O24">
-        <v>14.5419329142244</v>
+        <v>13.30497062634264</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.43329202947031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.65372061554082</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.01784086622188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.30562663916432</v>
+        <v>13.26913496705351</v>
       </c>
       <c r="C25">
-        <v>8.53750316719988</v>
+        <v>8.686044112865563</v>
       </c>
       <c r="D25">
-        <v>9.467191328494303</v>
+        <v>9.580980373166934</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.66395809522433</v>
+        <v>21.22108292868868</v>
       </c>
       <c r="G25">
-        <v>21.54426271498044</v>
+        <v>20.40672423531744</v>
       </c>
       <c r="H25">
-        <v>2.112292520005189</v>
+        <v>2.083606876964256</v>
       </c>
       <c r="I25">
-        <v>2.713177073825525</v>
+        <v>2.630548672536624</v>
       </c>
       <c r="J25">
-        <v>8.997888063715811</v>
+        <v>9.161926206132668</v>
       </c>
       <c r="K25">
-        <v>13.78283417240504</v>
+        <v>13.33137396492962</v>
       </c>
       <c r="L25">
-        <v>7.810861562334871</v>
+        <v>11.20277501696315</v>
       </c>
       <c r="M25">
-        <v>12.22790191879515</v>
+        <v>8.467130935828633</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.811074678709863</v>
       </c>
       <c r="O25">
-        <v>13.43768804101915</v>
+        <v>12.30082147469277</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.47989562877836</v>
+        <v>13.53165121662784</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.13289283476466</v>
       </c>
     </row>
   </sheetData>
